--- a/CIS Assessor Remote/src/win10_v10.xlsx
+++ b/CIS Assessor Remote/src/win10_v10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/CIS Assessor Remote/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9910AF37-245D-4E72-A4C6-CD0A5D8AFA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{9910AF37-245D-4E72-A4C6-CD0A5D8AFA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{893D3DD7-9705-493D-96B8-4C28F520D688}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="946" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="946" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PASSWORD_POLICY" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1270">
   <si>
     <t>Checklist</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>System\CurrentControlSet\Control\ProductOptions &amp;&amp; System\CurrentControlSet\Control\Server Applications &amp;&amp; Software\Microsoft\Windows NT\CurrentVersion</t>
-  </si>
-  <si>
     <t>2.3.10.8</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>HKLM\System\CurrentControlSet\Control\SecurePipeServers\Winreg\AllowedPaths</t>
   </si>
   <si>
-    <t>System\CurrentControlSet\Control\Print\Printers &amp;&amp; System\CurrentControlSet\Services\Eventlog &amp;&amp; Software\Microsoft\OLAP Server &amp;&amp; Software\Microsoft\Windows NT\CurrentVersion\Print &amp;&amp; Software\Microsoft\Windows NT\CurrentVersion\Windows &amp;&amp; System\CurrentControlSet\Control\ContentIndex &amp;&amp; System\CurrentControlSet\Control\Terminal Server &amp;&amp; System\CurrentControlSet\Control\Terminal Server\UserConfig &amp;&amp; System\CurrentControlSet\Control\Terminal Server\DefaultUserConfiguration &amp;&amp; Software\Microsoft\Windows NT\CurrentVersion\Perflib &amp;&amp; System\CurrentControlSet\Services\Sysmonlog</t>
-  </si>
-  <si>
     <t>2.3.10.9</t>
   </si>
   <si>
@@ -3117,9 +3111,6 @@
     <t>Ensure 'Account lockout threshold' is set to '5 or fewer invalid logon attempt(s), but not 0'</t>
   </si>
   <si>
-    <t>[1..5]</t>
-  </si>
-  <si>
     <t>1.2.4</t>
   </si>
   <si>
@@ -3834,13 +3825,19 @@
     <t>1 || 2 || 3</t>
   </si>
   <si>
-    <t>Value Not found</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Administrator</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>System\CurrentControlSet\Control\ProductOptionsSystem\CurrentControlSet\Control\Server ApplicationsSoftware\Microsoft\Windows NT\CurrentVersion</t>
+  </si>
+  <si>
+    <t>System\CurrentControlSet\Control\Print\PrintersSystem\CurrentControlSet\Services\EventlogSoftware\Microsoft\OLAP ServerSoftware\Microsoft\Windows NT\CurrentVersion\PrintSoftware\Microsoft\Windows NT\CurrentVersion\WindowsSystem\CurrentControlSet\Control\ContentIndexSystem\CurrentControlSet\Control\Terminal ServerSystem\CurrentControlSet\Control\Terminal Server\UserConfigSystem\CurrentControlSet\Control\Terminal Server\DefaultUserConfigurationSoftware\Microsoft\Windows NT\CurrentVersion\PerflibSystem\CurrentControlSet\Services\Sysmonlog</t>
   </si>
 </sst>
 </file>
@@ -4389,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,7 +4441,7 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4835,7 +4832,7 @@
         <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,6 +5130,9 @@
       <c r="F32" t="s">
         <v>134</v>
       </c>
+      <c r="I32" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -5154,7 +5154,7 @@
         <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5165,19 +5165,19 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
         <v>140</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>141</v>
-      </c>
-      <c r="E34" t="s">
-        <v>142</v>
       </c>
       <c r="F34" t="s">
         <v>138</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5188,16 +5188,16 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
         <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I35" t="s">
         <v>26</v>
@@ -5211,19 +5211,19 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>148</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>149</v>
-      </c>
-      <c r="F36" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5234,19 +5234,19 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
         <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I37" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5257,16 +5257,16 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I38" t="s">
         <v>50</v>
@@ -5280,16 +5280,16 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I39" t="s">
         <v>26</v>
@@ -5303,16 +5303,16 @@
         <v>27</v>
       </c>
       <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
         <v>161</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>162</v>
-      </c>
-      <c r="E40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40" t="s">
-        <v>164</v>
       </c>
       <c r="I40" t="s">
         <v>50</v>
@@ -5326,16 +5326,16 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
         <v>165</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" t="s">
-        <v>168</v>
       </c>
       <c r="I41" t="s">
         <v>50</v>
@@ -5349,19 +5349,19 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
         <v>169</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>170</v>
       </c>
-      <c r="E42" t="s">
+      <c r="I42" t="s">
         <v>171</v>
-      </c>
-      <c r="F42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5372,16 +5372,16 @@
         <v>27</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I43" t="s">
         <v>26</v>
@@ -5395,19 +5395,19 @@
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5418,16 +5418,16 @@
         <v>27</v>
       </c>
       <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
         <v>181</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>182</v>
-      </c>
-      <c r="E45" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" t="s">
-        <v>184</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
@@ -5441,19 +5441,19 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" t="s">
         <v>185</v>
       </c>
-      <c r="D46" t="s">
+      <c r="I46" t="s">
         <v>186</v>
-      </c>
-      <c r="E46" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5464,19 +5464,19 @@
         <v>27</v>
       </c>
       <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" t="s">
         <v>189</v>
       </c>
-      <c r="D47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" t="s">
-        <v>191</v>
-      </c>
       <c r="I47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5487,16 +5487,16 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
         <v>192</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>193</v>
-      </c>
-      <c r="E48" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" t="s">
-        <v>195</v>
       </c>
       <c r="I48" t="s">
         <v>26</v>
@@ -5510,16 +5510,16 @@
         <v>27</v>
       </c>
       <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" t="s">
         <v>196</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>197</v>
-      </c>
-      <c r="E49" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" t="s">
-        <v>199</v>
       </c>
       <c r="I49" t="s">
         <v>26</v>
@@ -5533,16 +5533,16 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E50" t="s">
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
@@ -5556,16 +5556,16 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I51" t="s">
         <v>55</v>
@@ -5579,16 +5579,16 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
         <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I52" t="s">
         <v>50</v>
@@ -5602,16 +5602,16 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -5625,16 +5625,16 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I54" t="s">
         <v>26</v>
@@ -5648,16 +5648,16 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I55" t="s">
         <v>26</v>
@@ -5671,16 +5671,16 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E56" t="s">
         <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I56" t="s">
         <v>26</v>
@@ -5694,16 +5694,16 @@
         <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s">
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I57" t="s">
         <v>26</v>
@@ -5717,19 +5717,19 @@
         <v>27</v>
       </c>
       <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" t="s">
         <v>224</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>225</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
         <v>226</v>
-      </c>
-      <c r="F58" t="s">
-        <v>227</v>
-      </c>
-      <c r="I58" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5740,19 +5740,19 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" t="s">
         <v>229</v>
       </c>
-      <c r="D59" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" t="s">
-        <v>231</v>
-      </c>
       <c r="F59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5763,19 +5763,19 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" t="s">
         <v>232</v>
       </c>
-      <c r="D60" t="s">
-        <v>233</v>
-      </c>
-      <c r="E60" t="s">
-        <v>234</v>
-      </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I60" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5786,19 +5786,19 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E61" t="s">
         <v>235</v>
       </c>
-      <c r="D61" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" t="s">
-        <v>237</v>
-      </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5809,19 +5809,19 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" t="s">
         <v>238</v>
       </c>
-      <c r="D62" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" t="s">
-        <v>240</v>
-      </c>
       <c r="F62" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5832,19 +5832,19 @@
         <v>27</v>
       </c>
       <c r="C63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
         <v>241</v>
       </c>
-      <c r="D63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" t="s">
-        <v>243</v>
-      </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5855,19 +5855,19 @@
         <v>27</v>
       </c>
       <c r="C64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
         <v>244</v>
       </c>
-      <c r="D64" t="s">
-        <v>245</v>
-      </c>
-      <c r="E64" t="s">
-        <v>246</v>
-      </c>
       <c r="F64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -5878,19 +5878,19 @@
         <v>27</v>
       </c>
       <c r="C65" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" t="s">
         <v>247</v>
       </c>
-      <c r="D65" t="s">
-        <v>248</v>
-      </c>
-      <c r="E65" t="s">
-        <v>249</v>
-      </c>
       <c r="F65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -5901,19 +5901,19 @@
         <v>27</v>
       </c>
       <c r="C66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" t="s">
         <v>250</v>
       </c>
-      <c r="D66" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" t="s">
-        <v>252</v>
-      </c>
       <c r="F66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I66" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5924,19 +5924,19 @@
         <v>27</v>
       </c>
       <c r="C67" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" t="s">
         <v>253</v>
       </c>
-      <c r="D67" t="s">
-        <v>254</v>
-      </c>
-      <c r="E67" t="s">
-        <v>255</v>
-      </c>
       <c r="F67" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5947,19 +5947,19 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" t="s">
         <v>256</v>
       </c>
-      <c r="D68" t="s">
-        <v>257</v>
-      </c>
-      <c r="E68" t="s">
-        <v>258</v>
-      </c>
       <c r="F68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5970,19 +5970,19 @@
         <v>27</v>
       </c>
       <c r="C69" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" t="s">
         <v>259</v>
       </c>
-      <c r="D69" t="s">
-        <v>260</v>
-      </c>
-      <c r="E69" t="s">
-        <v>261</v>
-      </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5993,19 +5993,19 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" t="s">
         <v>262</v>
       </c>
-      <c r="D70" t="s">
-        <v>263</v>
-      </c>
-      <c r="E70" t="s">
-        <v>264</v>
-      </c>
       <c r="F70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -6016,19 +6016,19 @@
         <v>27</v>
       </c>
       <c r="C71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>264</v>
+      </c>
+      <c r="E71" t="s">
         <v>265</v>
       </c>
-      <c r="D71" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" t="s">
-        <v>267</v>
-      </c>
       <c r="F71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -6039,19 +6039,19 @@
         <v>27</v>
       </c>
       <c r="C72" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" t="s">
+        <v>267</v>
+      </c>
+      <c r="E72" t="s">
         <v>268</v>
       </c>
-      <c r="D72" t="s">
-        <v>269</v>
-      </c>
-      <c r="E72" t="s">
-        <v>270</v>
-      </c>
       <c r="F72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -6062,19 +6062,19 @@
         <v>27</v>
       </c>
       <c r="C73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E73" t="s">
         <v>271</v>
       </c>
-      <c r="D73" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" t="s">
-        <v>273</v>
-      </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I73" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -6085,19 +6085,19 @@
         <v>27</v>
       </c>
       <c r="C74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" t="s">
         <v>274</v>
       </c>
-      <c r="D74" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" t="s">
-        <v>276</v>
-      </c>
       <c r="F74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -6108,19 +6108,19 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" t="s">
         <v>277</v>
       </c>
-      <c r="D75" t="s">
-        <v>278</v>
-      </c>
-      <c r="E75" t="s">
-        <v>279</v>
-      </c>
       <c r="F75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -6131,19 +6131,19 @@
         <v>27</v>
       </c>
       <c r="C76" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" t="s">
         <v>280</v>
       </c>
-      <c r="D76" t="s">
-        <v>281</v>
-      </c>
-      <c r="E76" t="s">
-        <v>282</v>
-      </c>
       <c r="F76" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6154,19 +6154,19 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" t="s">
+        <v>282</v>
+      </c>
+      <c r="E77" t="s">
         <v>283</v>
       </c>
-      <c r="D77" t="s">
-        <v>284</v>
-      </c>
-      <c r="E77" t="s">
-        <v>285</v>
-      </c>
       <c r="F77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -6177,19 +6177,19 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" t="s">
         <v>286</v>
       </c>
-      <c r="D78" t="s">
-        <v>287</v>
-      </c>
-      <c r="E78" t="s">
-        <v>288</v>
-      </c>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6200,16 +6200,16 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" t="s">
+        <v>288</v>
+      </c>
+      <c r="E79" t="s">
         <v>289</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>290</v>
-      </c>
-      <c r="E79" t="s">
-        <v>291</v>
-      </c>
-      <c r="F79" t="s">
-        <v>292</v>
       </c>
       <c r="I79" t="s">
         <v>26</v>
@@ -6223,16 +6223,16 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" t="s">
+        <v>292</v>
+      </c>
+      <c r="E80" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" t="s">
         <v>293</v>
-      </c>
-      <c r="D80" t="s">
-        <v>294</v>
-      </c>
-      <c r="E80" t="s">
-        <v>291</v>
-      </c>
-      <c r="F80" t="s">
-        <v>295</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
@@ -6246,16 +6246,16 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" t="s">
+        <v>295</v>
+      </c>
+      <c r="E81" t="s">
         <v>296</v>
       </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>297</v>
-      </c>
-      <c r="E81" t="s">
-        <v>298</v>
-      </c>
-      <c r="F81" t="s">
-        <v>299</v>
       </c>
       <c r="I81" t="s">
         <v>50</v>
@@ -6269,16 +6269,16 @@
         <v>27</v>
       </c>
       <c r="C82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" t="s">
         <v>300</v>
-      </c>
-      <c r="D82" t="s">
-        <v>301</v>
-      </c>
-      <c r="E82" t="s">
-        <v>291</v>
-      </c>
-      <c r="F82" t="s">
-        <v>302</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
@@ -6292,19 +6292,19 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D83" t="s">
+        <v>302</v>
+      </c>
+      <c r="E83" t="s">
         <v>303</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>304</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>305</v>
-      </c>
-      <c r="F83" t="s">
-        <v>306</v>
-      </c>
-      <c r="I83" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6315,19 +6315,19 @@
         <v>27</v>
       </c>
       <c r="C84" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84" t="s">
+        <v>303</v>
+      </c>
+      <c r="F84" t="s">
         <v>308</v>
       </c>
-      <c r="D84" t="s">
+      <c r="I84" t="s">
         <v>309</v>
-      </c>
-      <c r="E84" t="s">
-        <v>305</v>
-      </c>
-      <c r="F84" t="s">
-        <v>310</v>
-      </c>
-      <c r="I84" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6338,16 +6338,16 @@
         <v>27</v>
       </c>
       <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" t="s">
+        <v>303</v>
+      </c>
+      <c r="F85" t="s">
         <v>312</v>
-      </c>
-      <c r="D85" t="s">
-        <v>313</v>
-      </c>
-      <c r="E85" t="s">
-        <v>305</v>
-      </c>
-      <c r="F85" t="s">
-        <v>314</v>
       </c>
       <c r="I85" t="s">
         <v>26</v>
@@ -6361,16 +6361,16 @@
         <v>27</v>
       </c>
       <c r="C86" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" t="s">
+        <v>303</v>
+      </c>
+      <c r="F86" t="s">
         <v>315</v>
-      </c>
-      <c r="D86" t="s">
-        <v>316</v>
-      </c>
-      <c r="E86" t="s">
-        <v>305</v>
-      </c>
-      <c r="F86" t="s">
-        <v>317</v>
       </c>
       <c r="I86" t="s">
         <v>26</v>
@@ -6384,16 +6384,16 @@
         <v>27</v>
       </c>
       <c r="C87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" t="s">
         <v>318</v>
       </c>
-      <c r="D87" t="s">
-        <v>319</v>
-      </c>
-      <c r="E87" t="s">
-        <v>320</v>
-      </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I87" t="s">
         <v>26</v>
@@ -6407,16 +6407,16 @@
         <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
@@ -6430,16 +6430,16 @@
         <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F89" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I89" t="s">
         <v>50</v>
@@ -6453,16 +6453,16 @@
         <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D90" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E90" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I90" t="s">
         <v>26</v>
@@ -6476,19 +6476,19 @@
         <v>27</v>
       </c>
       <c r="C91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" t="s">
+        <v>326</v>
+      </c>
+      <c r="E91" t="s">
         <v>327</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
+        <v>304</v>
+      </c>
+      <c r="I91" t="s">
         <v>328</v>
-      </c>
-      <c r="E91" t="s">
-        <v>329</v>
-      </c>
-      <c r="F91" t="s">
-        <v>306</v>
-      </c>
-      <c r="I91" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,19 +6499,19 @@
         <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6522,16 +6522,16 @@
         <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D93" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F93" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I93" t="s">
         <v>26</v>
@@ -6545,16 +6545,16 @@
         <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D94" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E94" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I94" t="s">
         <v>26</v>
@@ -6568,16 +6568,16 @@
         <v>27</v>
       </c>
       <c r="C95" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" t="s">
+        <v>336</v>
+      </c>
+      <c r="E95" t="s">
         <v>337</v>
       </c>
-      <c r="D95" t="s">
-        <v>338</v>
-      </c>
-      <c r="E95" t="s">
-        <v>339</v>
-      </c>
       <c r="F95" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I95" t="s">
         <v>26</v>
@@ -6591,16 +6591,16 @@
         <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D96" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
@@ -6614,16 +6614,16 @@
         <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D97" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E97" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I97" t="s">
         <v>50</v>
@@ -6637,16 +6637,16 @@
         <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I98" t="s">
         <v>26</v>
@@ -6660,16 +6660,16 @@
         <v>27</v>
       </c>
       <c r="C99" t="s">
+        <v>344</v>
+      </c>
+      <c r="D99" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" t="s">
+        <v>337</v>
+      </c>
+      <c r="F99" t="s">
         <v>346</v>
-      </c>
-      <c r="D99" t="s">
-        <v>347</v>
-      </c>
-      <c r="E99" t="s">
-        <v>339</v>
-      </c>
-      <c r="F99" t="s">
-        <v>348</v>
       </c>
       <c r="I99" t="s">
         <v>50</v>
@@ -6683,16 +6683,16 @@
         <v>27</v>
       </c>
       <c r="C100" t="s">
+        <v>347</v>
+      </c>
+      <c r="D100" t="s">
+        <v>348</v>
+      </c>
+      <c r="E100" t="s">
+        <v>337</v>
+      </c>
+      <c r="F100" t="s">
         <v>349</v>
-      </c>
-      <c r="D100" t="s">
-        <v>350</v>
-      </c>
-      <c r="E100" t="s">
-        <v>339</v>
-      </c>
-      <c r="F100" t="s">
-        <v>351</v>
       </c>
       <c r="I100" t="s">
         <v>50</v>
@@ -6706,19 +6706,19 @@
         <v>27</v>
       </c>
       <c r="C101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101" t="s">
+        <v>351</v>
+      </c>
+      <c r="E101" t="s">
         <v>352</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
+        <v>304</v>
+      </c>
+      <c r="I101" t="s">
         <v>353</v>
-      </c>
-      <c r="E101" t="s">
-        <v>354</v>
-      </c>
-      <c r="F101" t="s">
-        <v>306</v>
-      </c>
-      <c r="I101" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,19 +6729,19 @@
         <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E102" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I102" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,16 +6752,16 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D103" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I103" t="s">
         <v>26</v>
@@ -6775,16 +6775,16 @@
         <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D104" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E104" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F104" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I104" t="s">
         <v>26</v>
@@ -6798,16 +6798,16 @@
         <v>27</v>
       </c>
       <c r="C105" t="s">
+        <v>360</v>
+      </c>
+      <c r="D105" t="s">
+        <v>361</v>
+      </c>
+      <c r="E105" t="s">
         <v>362</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>363</v>
-      </c>
-      <c r="E105" t="s">
-        <v>364</v>
-      </c>
-      <c r="F105" t="s">
-        <v>365</v>
       </c>
       <c r="I105" t="s">
         <v>26</v>
@@ -6821,16 +6821,16 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
+        <v>364</v>
+      </c>
+      <c r="D106" t="s">
+        <v>365</v>
+      </c>
+      <c r="E106" t="s">
+        <v>362</v>
+      </c>
+      <c r="F106" t="s">
         <v>366</v>
-      </c>
-      <c r="D106" t="s">
-        <v>367</v>
-      </c>
-      <c r="E106" t="s">
-        <v>364</v>
-      </c>
-      <c r="F106" t="s">
-        <v>368</v>
       </c>
       <c r="I106" t="s">
         <v>26</v>
@@ -6844,16 +6844,16 @@
         <v>27</v>
       </c>
       <c r="C107" t="s">
+        <v>367</v>
+      </c>
+      <c r="D107" t="s">
+        <v>368</v>
+      </c>
+      <c r="E107" t="s">
         <v>369</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>370</v>
-      </c>
-      <c r="E107" t="s">
-        <v>371</v>
-      </c>
-      <c r="F107" t="s">
-        <v>372</v>
       </c>
       <c r="I107" t="s">
         <v>50</v>
@@ -6867,19 +6867,19 @@
         <v>27</v>
       </c>
       <c r="C108" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" t="s">
+        <v>372</v>
+      </c>
+      <c r="E108" t="s">
         <v>373</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>374</v>
       </c>
-      <c r="E108" t="s">
+      <c r="I108" t="s">
         <v>375</v>
-      </c>
-      <c r="F108" t="s">
-        <v>376</v>
-      </c>
-      <c r="I108" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6890,16 +6890,16 @@
         <v>27</v>
       </c>
       <c r="C109" t="s">
+        <v>376</v>
+      </c>
+      <c r="D109" t="s">
+        <v>377</v>
+      </c>
+      <c r="E109" t="s">
         <v>378</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>379</v>
-      </c>
-      <c r="E109" t="s">
-        <v>380</v>
-      </c>
-      <c r="F109" t="s">
-        <v>381</v>
       </c>
       <c r="I109" t="s">
         <v>26</v>
@@ -6913,16 +6913,16 @@
         <v>27</v>
       </c>
       <c r="C110" t="s">
+        <v>380</v>
+      </c>
+      <c r="D110" t="s">
+        <v>381</v>
+      </c>
+      <c r="E110" t="s">
+        <v>378</v>
+      </c>
+      <c r="F110" t="s">
         <v>382</v>
-      </c>
-      <c r="D110" t="s">
-        <v>383</v>
-      </c>
-      <c r="E110" t="s">
-        <v>380</v>
-      </c>
-      <c r="F110" t="s">
-        <v>384</v>
       </c>
       <c r="I110" t="s">
         <v>26</v>
@@ -6936,19 +6936,19 @@
         <v>27</v>
       </c>
       <c r="C111" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" t="s">
+        <v>384</v>
+      </c>
+      <c r="E111" t="s">
+        <v>378</v>
+      </c>
+      <c r="F111" t="s">
         <v>385</v>
       </c>
-      <c r="D111" t="s">
-        <v>386</v>
-      </c>
-      <c r="E111" t="s">
-        <v>380</v>
-      </c>
-      <c r="F111" t="s">
-        <v>387</v>
-      </c>
       <c r="I111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -6959,19 +6959,19 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" t="s">
+        <v>387</v>
+      </c>
+      <c r="E112" t="s">
+        <v>378</v>
+      </c>
+      <c r="F112" t="s">
         <v>388</v>
       </c>
-      <c r="D112" t="s">
+      <c r="I112" t="s">
         <v>389</v>
-      </c>
-      <c r="E112" t="s">
-        <v>380</v>
-      </c>
-      <c r="F112" t="s">
-        <v>390</v>
-      </c>
-      <c r="I112" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -6982,19 +6982,19 @@
         <v>27</v>
       </c>
       <c r="C113" t="s">
+        <v>390</v>
+      </c>
+      <c r="D113" t="s">
+        <v>391</v>
+      </c>
+      <c r="E113" t="s">
+        <v>378</v>
+      </c>
+      <c r="F113" t="s">
         <v>392</v>
       </c>
-      <c r="D113" t="s">
+      <c r="I113" t="s">
         <v>393</v>
-      </c>
-      <c r="E113" t="s">
-        <v>380</v>
-      </c>
-      <c r="F113" t="s">
-        <v>394</v>
-      </c>
-      <c r="I113" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -7005,16 +7005,16 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
+        <v>394</v>
+      </c>
+      <c r="D114" t="s">
+        <v>395</v>
+      </c>
+      <c r="E114" t="s">
         <v>396</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>397</v>
-      </c>
-      <c r="E114" t="s">
-        <v>398</v>
-      </c>
-      <c r="F114" t="s">
-        <v>399</v>
       </c>
       <c r="I114" t="s">
         <v>50</v>
@@ -7028,16 +7028,16 @@
         <v>27</v>
       </c>
       <c r="C115" t="s">
+        <v>398</v>
+      </c>
+      <c r="D115" t="s">
+        <v>399</v>
+      </c>
+      <c r="E115" t="s">
         <v>400</v>
       </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>401</v>
-      </c>
-      <c r="E115" t="s">
-        <v>402</v>
-      </c>
-      <c r="F115" t="s">
-        <v>403</v>
       </c>
       <c r="I115" t="s">
         <v>26</v>
@@ -7051,19 +7051,19 @@
         <v>27</v>
       </c>
       <c r="C116" t="s">
+        <v>402</v>
+      </c>
+      <c r="D116" t="s">
+        <v>403</v>
+      </c>
+      <c r="E116" t="s">
         <v>404</v>
       </c>
-      <c r="D116" t="s">
-        <v>405</v>
-      </c>
-      <c r="E116" t="s">
-        <v>406</v>
-      </c>
       <c r="F116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -7074,16 +7074,16 @@
         <v>27</v>
       </c>
       <c r="C117" t="s">
+        <v>405</v>
+      </c>
+      <c r="D117" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" t="s">
         <v>407</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>408</v>
-      </c>
-      <c r="E117" t="s">
-        <v>409</v>
-      </c>
-      <c r="F117" t="s">
-        <v>410</v>
       </c>
       <c r="I117" t="s">
         <v>50</v>
@@ -7097,16 +7097,16 @@
         <v>27</v>
       </c>
       <c r="C118" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" t="s">
+        <v>410</v>
+      </c>
+      <c r="E118" t="s">
         <v>411</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>412</v>
-      </c>
-      <c r="E118" t="s">
-        <v>413</v>
-      </c>
-      <c r="F118" t="s">
-        <v>414</v>
       </c>
       <c r="I118" t="s">
         <v>50</v>
@@ -7120,16 +7120,16 @@
         <v>27</v>
       </c>
       <c r="C119" t="s">
+        <v>413</v>
+      </c>
+      <c r="D119" t="s">
+        <v>414</v>
+      </c>
+      <c r="E119" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" t="s">
         <v>415</v>
-      </c>
-      <c r="D119" t="s">
-        <v>416</v>
-      </c>
-      <c r="E119" t="s">
-        <v>149</v>
-      </c>
-      <c r="F119" t="s">
-        <v>417</v>
       </c>
       <c r="I119" t="s">
         <v>26</v>
@@ -7143,16 +7143,16 @@
         <v>27</v>
       </c>
       <c r="C120" t="s">
+        <v>416</v>
+      </c>
+      <c r="D120" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" t="s">
         <v>418</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>419</v>
-      </c>
-      <c r="E120" t="s">
-        <v>420</v>
-      </c>
-      <c r="F120" t="s">
-        <v>421</v>
       </c>
       <c r="I120" t="s">
         <v>26</v>
@@ -7166,16 +7166,16 @@
         <v>27</v>
       </c>
       <c r="C121" t="s">
+        <v>420</v>
+      </c>
+      <c r="D121" t="s">
+        <v>421</v>
+      </c>
+      <c r="E121" t="s">
         <v>422</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
         <v>423</v>
-      </c>
-      <c r="E121" t="s">
-        <v>424</v>
-      </c>
-      <c r="F121" t="s">
-        <v>425</v>
       </c>
       <c r="I121" t="s">
         <v>55</v>
@@ -7189,16 +7189,16 @@
         <v>27</v>
       </c>
       <c r="C122" t="s">
+        <v>424</v>
+      </c>
+      <c r="D122" t="s">
+        <v>425</v>
+      </c>
+      <c r="E122" t="s">
         <v>426</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>427</v>
-      </c>
-      <c r="E122" t="s">
-        <v>428</v>
-      </c>
-      <c r="F122" t="s">
-        <v>429</v>
       </c>
       <c r="I122" t="s">
         <v>50</v>
@@ -7212,16 +7212,16 @@
         <v>27</v>
       </c>
       <c r="C123" t="s">
+        <v>428</v>
+      </c>
+      <c r="D123" t="s">
+        <v>429</v>
+      </c>
+      <c r="E123" t="s">
         <v>430</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>431</v>
-      </c>
-      <c r="E123" t="s">
-        <v>432</v>
-      </c>
-      <c r="F123" t="s">
-        <v>433</v>
       </c>
       <c r="I123" t="s">
         <v>50</v>
@@ -7235,16 +7235,16 @@
         <v>27</v>
       </c>
       <c r="C124" t="s">
+        <v>432</v>
+      </c>
+      <c r="D124" t="s">
+        <v>433</v>
+      </c>
+      <c r="E124" t="s">
         <v>434</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>435</v>
-      </c>
-      <c r="E124" t="s">
-        <v>436</v>
-      </c>
-      <c r="F124" t="s">
-        <v>437</v>
       </c>
       <c r="I124" t="s">
         <v>55</v>
@@ -7258,16 +7258,16 @@
         <v>27</v>
       </c>
       <c r="C125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" t="s">
+        <v>437</v>
+      </c>
+      <c r="E125" t="s">
         <v>438</v>
       </c>
-      <c r="D125" t="s">
-        <v>439</v>
-      </c>
-      <c r="E125" t="s">
-        <v>440</v>
-      </c>
       <c r="F125" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I125" t="s">
         <v>55</v>
@@ -7281,16 +7281,16 @@
         <v>27</v>
       </c>
       <c r="C126" t="s">
+        <v>439</v>
+      </c>
+      <c r="D126" t="s">
+        <v>440</v>
+      </c>
+      <c r="E126" t="s">
+        <v>438</v>
+      </c>
+      <c r="F126" t="s">
         <v>441</v>
-      </c>
-      <c r="D126" t="s">
-        <v>442</v>
-      </c>
-      <c r="E126" t="s">
-        <v>440</v>
-      </c>
-      <c r="F126" t="s">
-        <v>443</v>
       </c>
       <c r="I126" t="s">
         <v>50</v>
@@ -7304,16 +7304,16 @@
         <v>27</v>
       </c>
       <c r="C127" t="s">
+        <v>442</v>
+      </c>
+      <c r="D127" t="s">
+        <v>443</v>
+      </c>
+      <c r="E127" t="s">
         <v>444</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>445</v>
-      </c>
-      <c r="E127" t="s">
-        <v>446</v>
-      </c>
-      <c r="F127" t="s">
-        <v>447</v>
       </c>
       <c r="I127" t="s">
         <v>26</v>
@@ -7327,16 +7327,16 @@
         <v>27</v>
       </c>
       <c r="C128" t="s">
+        <v>446</v>
+      </c>
+      <c r="D128" t="s">
+        <v>447</v>
+      </c>
+      <c r="E128" t="s">
         <v>448</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>449</v>
-      </c>
-      <c r="E128" t="s">
-        <v>450</v>
-      </c>
-      <c r="F128" t="s">
-        <v>451</v>
       </c>
       <c r="I128" t="s">
         <v>26</v>
@@ -7350,19 +7350,19 @@
         <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D129" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s">
         <v>53</v>
       </c>
       <c r="F129" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I129" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -7373,19 +7373,19 @@
         <v>27</v>
       </c>
       <c r="C130" t="s">
+        <v>454</v>
+      </c>
+      <c r="D130" t="s">
+        <v>455</v>
+      </c>
+      <c r="E130" t="s">
         <v>456</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>457</v>
       </c>
-      <c r="E130" t="s">
+      <c r="I130" t="s">
         <v>458</v>
-      </c>
-      <c r="F130" t="s">
-        <v>459</v>
-      </c>
-      <c r="I130" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,16 +7396,16 @@
         <v>27</v>
       </c>
       <c r="C131" t="s">
+        <v>459</v>
+      </c>
+      <c r="D131" t="s">
+        <v>460</v>
+      </c>
+      <c r="E131" t="s">
         <v>461</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>462</v>
-      </c>
-      <c r="E131" t="s">
-        <v>463</v>
-      </c>
-      <c r="F131" t="s">
-        <v>464</v>
       </c>
       <c r="I131" t="s">
         <v>55</v>
@@ -7419,16 +7419,16 @@
         <v>27</v>
       </c>
       <c r="C132" t="s">
+        <v>463</v>
+      </c>
+      <c r="D132" t="s">
+        <v>464</v>
+      </c>
+      <c r="E132" t="s">
         <v>465</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>466</v>
-      </c>
-      <c r="E132" t="s">
-        <v>467</v>
-      </c>
-      <c r="F132" t="s">
-        <v>468</v>
       </c>
       <c r="I132" t="s">
         <v>50</v>
@@ -7442,16 +7442,16 @@
         <v>27</v>
       </c>
       <c r="C133" t="s">
+        <v>467</v>
+      </c>
+      <c r="D133" t="s">
+        <v>468</v>
+      </c>
+      <c r="E133" t="s">
         <v>469</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>470</v>
-      </c>
-      <c r="E133" t="s">
-        <v>471</v>
-      </c>
-      <c r="F133" t="s">
-        <v>472</v>
       </c>
       <c r="I133" t="s">
         <v>50</v>
@@ -7465,16 +7465,16 @@
         <v>27</v>
       </c>
       <c r="C134" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" t="s">
+        <v>472</v>
+      </c>
+      <c r="E134" t="s">
         <v>473</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>474</v>
-      </c>
-      <c r="E134" t="s">
-        <v>475</v>
-      </c>
-      <c r="F134" t="s">
-        <v>476</v>
       </c>
       <c r="I134" t="s">
         <v>50</v>
@@ -7488,16 +7488,16 @@
         <v>27</v>
       </c>
       <c r="C135" t="s">
+        <v>475</v>
+      </c>
+      <c r="D135" t="s">
+        <v>476</v>
+      </c>
+      <c r="E135" t="s">
+        <v>473</v>
+      </c>
+      <c r="F135" t="s">
         <v>477</v>
-      </c>
-      <c r="D135" t="s">
-        <v>478</v>
-      </c>
-      <c r="E135" t="s">
-        <v>475</v>
-      </c>
-      <c r="F135" t="s">
-        <v>479</v>
       </c>
       <c r="I135" t="s">
         <v>50</v>
@@ -7511,16 +7511,16 @@
         <v>27</v>
       </c>
       <c r="C136" t="s">
+        <v>478</v>
+      </c>
+      <c r="D136" t="s">
+        <v>479</v>
+      </c>
+      <c r="E136" t="s">
         <v>480</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>481</v>
-      </c>
-      <c r="E136" t="s">
-        <v>482</v>
-      </c>
-      <c r="F136" t="s">
-        <v>483</v>
       </c>
       <c r="I136" t="s">
         <v>26</v>
@@ -7534,19 +7534,19 @@
         <v>27</v>
       </c>
       <c r="C137" t="s">
+        <v>482</v>
+      </c>
+      <c r="D137" t="s">
+        <v>483</v>
+      </c>
+      <c r="E137" t="s">
         <v>484</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>485</v>
       </c>
-      <c r="E137" t="s">
+      <c r="I137" t="s">
         <v>486</v>
-      </c>
-      <c r="F137" t="s">
-        <v>487</v>
-      </c>
-      <c r="I137" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -7557,19 +7557,19 @@
         <v>27</v>
       </c>
       <c r="C138" t="s">
+        <v>482</v>
+      </c>
+      <c r="D138" t="s">
+        <v>487</v>
+      </c>
+      <c r="E138" t="s">
         <v>484</v>
       </c>
-      <c r="D138" t="s">
-        <v>489</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
+        <v>488</v>
+      </c>
+      <c r="I138" t="s">
         <v>486</v>
-      </c>
-      <c r="F138" t="s">
-        <v>490</v>
-      </c>
-      <c r="I138" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -7580,16 +7580,16 @@
         <v>27</v>
       </c>
       <c r="C139" t="s">
+        <v>489</v>
+      </c>
+      <c r="D139" t="s">
+        <v>490</v>
+      </c>
+      <c r="E139" t="s">
         <v>491</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>492</v>
-      </c>
-      <c r="E139" t="s">
-        <v>493</v>
-      </c>
-      <c r="F139" t="s">
-        <v>494</v>
       </c>
       <c r="I139" t="s">
         <v>39</v>
@@ -7603,16 +7603,16 @@
         <v>27</v>
       </c>
       <c r="C140" t="s">
+        <v>493</v>
+      </c>
+      <c r="D140" t="s">
+        <v>494</v>
+      </c>
+      <c r="E140" t="s">
+        <v>491</v>
+      </c>
+      <c r="F140" t="s">
         <v>495</v>
-      </c>
-      <c r="D140" t="s">
-        <v>496</v>
-      </c>
-      <c r="E140" t="s">
-        <v>493</v>
-      </c>
-      <c r="F140" t="s">
-        <v>497</v>
       </c>
       <c r="I140" t="s">
         <v>26</v>
@@ -7626,16 +7626,16 @@
         <v>27</v>
       </c>
       <c r="C141" t="s">
+        <v>496</v>
+      </c>
+      <c r="D141" t="s">
+        <v>497</v>
+      </c>
+      <c r="E141" t="s">
         <v>498</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>499</v>
-      </c>
-      <c r="E141" t="s">
-        <v>500</v>
-      </c>
-      <c r="F141" t="s">
-        <v>501</v>
       </c>
       <c r="I141" t="s">
         <v>50</v>
@@ -7649,16 +7649,16 @@
         <v>27</v>
       </c>
       <c r="C142" t="s">
+        <v>500</v>
+      </c>
+      <c r="D142" t="s">
+        <v>501</v>
+      </c>
+      <c r="E142" t="s">
         <v>502</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>503</v>
-      </c>
-      <c r="E142" t="s">
-        <v>504</v>
-      </c>
-      <c r="F142" t="s">
-        <v>505</v>
       </c>
       <c r="I142" t="s">
         <v>55</v>
@@ -7672,16 +7672,16 @@
         <v>27</v>
       </c>
       <c r="C143" t="s">
+        <v>504</v>
+      </c>
+      <c r="D143" t="s">
+        <v>505</v>
+      </c>
+      <c r="E143" t="s">
         <v>506</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>507</v>
-      </c>
-      <c r="E143" t="s">
-        <v>508</v>
-      </c>
-      <c r="F143" t="s">
-        <v>509</v>
       </c>
       <c r="I143" t="s">
         <v>26</v>
@@ -7695,16 +7695,16 @@
         <v>27</v>
       </c>
       <c r="C144" t="s">
+        <v>508</v>
+      </c>
+      <c r="D144" t="s">
+        <v>509</v>
+      </c>
+      <c r="E144" t="s">
         <v>510</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>511</v>
-      </c>
-      <c r="E144" t="s">
-        <v>512</v>
-      </c>
-      <c r="F144" t="s">
-        <v>513</v>
       </c>
       <c r="I144" t="s">
         <v>50</v>
@@ -7718,16 +7718,16 @@
         <v>27</v>
       </c>
       <c r="C145" t="s">
+        <v>512</v>
+      </c>
+      <c r="D145" t="s">
+        <v>513</v>
+      </c>
+      <c r="E145" t="s">
+        <v>510</v>
+      </c>
+      <c r="F145" t="s">
         <v>514</v>
-      </c>
-      <c r="D145" t="s">
-        <v>515</v>
-      </c>
-      <c r="E145" t="s">
-        <v>512</v>
-      </c>
-      <c r="F145" t="s">
-        <v>516</v>
       </c>
       <c r="I145" t="s">
         <v>50</v>
@@ -7741,19 +7741,19 @@
         <v>27</v>
       </c>
       <c r="C146" t="s">
+        <v>515</v>
+      </c>
+      <c r="D146" t="s">
+        <v>516</v>
+      </c>
+      <c r="E146" t="s">
+        <v>510</v>
+      </c>
+      <c r="F146" t="s">
         <v>517</v>
       </c>
-      <c r="D146" t="s">
-        <v>518</v>
-      </c>
-      <c r="E146" t="s">
-        <v>512</v>
-      </c>
-      <c r="F146" t="s">
-        <v>519</v>
-      </c>
       <c r="I146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -7764,16 +7764,16 @@
         <v>27</v>
       </c>
       <c r="C147" t="s">
+        <v>518</v>
+      </c>
+      <c r="D147" t="s">
+        <v>519</v>
+      </c>
+      <c r="E147" t="s">
+        <v>510</v>
+      </c>
+      <c r="F147" t="s">
         <v>520</v>
-      </c>
-      <c r="D147" t="s">
-        <v>521</v>
-      </c>
-      <c r="E147" t="s">
-        <v>512</v>
-      </c>
-      <c r="F147" t="s">
-        <v>522</v>
       </c>
       <c r="I147" t="s">
         <v>50</v>
@@ -7787,16 +7787,16 @@
         <v>27</v>
       </c>
       <c r="C148" t="s">
+        <v>521</v>
+      </c>
+      <c r="D148" t="s">
+        <v>522</v>
+      </c>
+      <c r="E148" t="s">
+        <v>510</v>
+      </c>
+      <c r="F148" t="s">
         <v>523</v>
-      </c>
-      <c r="D148" t="s">
-        <v>524</v>
-      </c>
-      <c r="E148" t="s">
-        <v>512</v>
-      </c>
-      <c r="F148" t="s">
-        <v>525</v>
       </c>
       <c r="I148" t="s">
         <v>50</v>
@@ -7810,16 +7810,16 @@
         <v>27</v>
       </c>
       <c r="C149" t="s">
+        <v>524</v>
+      </c>
+      <c r="D149" t="s">
+        <v>525</v>
+      </c>
+      <c r="E149" t="s">
+        <v>506</v>
+      </c>
+      <c r="F149" t="s">
         <v>526</v>
-      </c>
-      <c r="D149" t="s">
-        <v>527</v>
-      </c>
-      <c r="E149" t="s">
-        <v>508</v>
-      </c>
-      <c r="F149" t="s">
-        <v>528</v>
       </c>
       <c r="I149" t="s">
         <v>26</v>
@@ -7833,16 +7833,16 @@
         <v>27</v>
       </c>
       <c r="C150" t="s">
+        <v>527</v>
+      </c>
+      <c r="D150" t="s">
+        <v>528</v>
+      </c>
+      <c r="E150" t="s">
+        <v>418</v>
+      </c>
+      <c r="F150" t="s">
         <v>529</v>
-      </c>
-      <c r="D150" t="s">
-        <v>530</v>
-      </c>
-      <c r="E150" t="s">
-        <v>420</v>
-      </c>
-      <c r="F150" t="s">
-        <v>531</v>
       </c>
       <c r="I150" t="s">
         <v>50</v>
@@ -7856,16 +7856,16 @@
         <v>27</v>
       </c>
       <c r="C151" t="s">
+        <v>530</v>
+      </c>
+      <c r="D151" t="s">
+        <v>531</v>
+      </c>
+      <c r="E151" t="s">
+        <v>418</v>
+      </c>
+      <c r="F151" t="s">
         <v>532</v>
-      </c>
-      <c r="D151" t="s">
-        <v>533</v>
-      </c>
-      <c r="E151" t="s">
-        <v>420</v>
-      </c>
-      <c r="F151" t="s">
-        <v>534</v>
       </c>
       <c r="I151" t="s">
         <v>50</v>
@@ -7879,16 +7879,16 @@
         <v>27</v>
       </c>
       <c r="C152" t="s">
+        <v>533</v>
+      </c>
+      <c r="D152" t="s">
+        <v>534</v>
+      </c>
+      <c r="E152" t="s">
         <v>535</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
         <v>536</v>
-      </c>
-      <c r="E152" t="s">
-        <v>537</v>
-      </c>
-      <c r="F152" t="s">
-        <v>538</v>
       </c>
       <c r="I152" t="s">
         <v>26</v>
@@ -7902,16 +7902,16 @@
         <v>27</v>
       </c>
       <c r="C153" t="s">
+        <v>537</v>
+      </c>
+      <c r="D153" t="s">
+        <v>538</v>
+      </c>
+      <c r="E153" t="s">
         <v>539</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>540</v>
-      </c>
-      <c r="E153" t="s">
-        <v>541</v>
-      </c>
-      <c r="F153" t="s">
-        <v>542</v>
       </c>
       <c r="I153" t="s">
         <v>50</v>
@@ -7925,16 +7925,16 @@
         <v>27</v>
       </c>
       <c r="C154" t="s">
+        <v>541</v>
+      </c>
+      <c r="D154" t="s">
+        <v>542</v>
+      </c>
+      <c r="E154" t="s">
         <v>543</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>544</v>
-      </c>
-      <c r="E154" t="s">
-        <v>545</v>
-      </c>
-      <c r="F154" t="s">
-        <v>546</v>
       </c>
       <c r="I154" t="s">
         <v>26</v>
@@ -7948,16 +7948,16 @@
         <v>27</v>
       </c>
       <c r="C155" t="s">
+        <v>545</v>
+      </c>
+      <c r="D155" t="s">
+        <v>546</v>
+      </c>
+      <c r="E155" t="s">
         <v>547</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>548</v>
-      </c>
-      <c r="E155" t="s">
-        <v>549</v>
-      </c>
-      <c r="F155" t="s">
-        <v>550</v>
       </c>
       <c r="I155" t="s">
         <v>26</v>
@@ -7971,16 +7971,16 @@
         <v>27</v>
       </c>
       <c r="C156" t="s">
+        <v>549</v>
+      </c>
+      <c r="D156" t="s">
+        <v>550</v>
+      </c>
+      <c r="E156" t="s">
         <v>551</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
         <v>552</v>
-      </c>
-      <c r="E156" t="s">
-        <v>553</v>
-      </c>
-      <c r="F156" t="s">
-        <v>554</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -7994,16 +7994,16 @@
         <v>27</v>
       </c>
       <c r="C157" t="s">
+        <v>553</v>
+      </c>
+      <c r="D157" t="s">
+        <v>554</v>
+      </c>
+      <c r="E157" t="s">
         <v>555</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>556</v>
-      </c>
-      <c r="E157" t="s">
-        <v>557</v>
-      </c>
-      <c r="F157" t="s">
-        <v>558</v>
       </c>
       <c r="I157" t="s">
         <v>50</v>
@@ -8017,16 +8017,16 @@
         <v>27</v>
       </c>
       <c r="C158" t="s">
+        <v>557</v>
+      </c>
+      <c r="D158" t="s">
+        <v>558</v>
+      </c>
+      <c r="E158" t="s">
+        <v>555</v>
+      </c>
+      <c r="F158" t="s">
         <v>559</v>
-      </c>
-      <c r="D158" t="s">
-        <v>560</v>
-      </c>
-      <c r="E158" t="s">
-        <v>557</v>
-      </c>
-      <c r="F158" t="s">
-        <v>561</v>
       </c>
       <c r="I158" t="s">
         <v>50</v>
@@ -8040,16 +8040,16 @@
         <v>27</v>
       </c>
       <c r="C159" t="s">
+        <v>560</v>
+      </c>
+      <c r="D159" t="s">
+        <v>561</v>
+      </c>
+      <c r="E159" t="s">
         <v>562</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>563</v>
-      </c>
-      <c r="E159" t="s">
-        <v>564</v>
-      </c>
-      <c r="F159" t="s">
-        <v>565</v>
       </c>
       <c r="I159" t="s">
         <v>50</v>
@@ -8063,16 +8063,16 @@
         <v>27</v>
       </c>
       <c r="C160" t="s">
+        <v>564</v>
+      </c>
+      <c r="D160" t="s">
+        <v>565</v>
+      </c>
+      <c r="E160" t="s">
+        <v>506</v>
+      </c>
+      <c r="F160" t="s">
         <v>566</v>
-      </c>
-      <c r="D160" t="s">
-        <v>567</v>
-      </c>
-      <c r="E160" t="s">
-        <v>508</v>
-      </c>
-      <c r="F160" t="s">
-        <v>568</v>
       </c>
       <c r="I160" t="s">
         <v>26</v>
@@ -8086,16 +8086,16 @@
         <v>27</v>
       </c>
       <c r="C161" t="s">
+        <v>567</v>
+      </c>
+      <c r="D161" t="s">
+        <v>568</v>
+      </c>
+      <c r="E161" t="s">
         <v>569</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>570</v>
-      </c>
-      <c r="E161" t="s">
-        <v>571</v>
-      </c>
-      <c r="F161" t="s">
-        <v>572</v>
       </c>
       <c r="I161" t="s">
         <v>26</v>
@@ -8109,16 +8109,16 @@
         <v>27</v>
       </c>
       <c r="C162" t="s">
+        <v>571</v>
+      </c>
+      <c r="D162" t="s">
+        <v>572</v>
+      </c>
+      <c r="E162" t="s">
         <v>573</v>
       </c>
-      <c r="D162" t="s">
+      <c r="F162" t="s">
         <v>574</v>
-      </c>
-      <c r="E162" t="s">
-        <v>575</v>
-      </c>
-      <c r="F162" t="s">
-        <v>576</v>
       </c>
       <c r="I162" t="s">
         <v>50</v>
@@ -8132,16 +8132,16 @@
         <v>27</v>
       </c>
       <c r="C163" t="s">
+        <v>575</v>
+      </c>
+      <c r="D163" t="s">
+        <v>576</v>
+      </c>
+      <c r="E163" t="s">
+        <v>562</v>
+      </c>
+      <c r="F163" t="s">
         <v>577</v>
-      </c>
-      <c r="D163" t="s">
-        <v>578</v>
-      </c>
-      <c r="E163" t="s">
-        <v>564</v>
-      </c>
-      <c r="F163" t="s">
-        <v>579</v>
       </c>
       <c r="I163" t="s">
         <v>26</v>
@@ -8155,16 +8155,16 @@
         <v>27</v>
       </c>
       <c r="C164" t="s">
+        <v>578</v>
+      </c>
+      <c r="D164" t="s">
+        <v>579</v>
+      </c>
+      <c r="E164" t="s">
+        <v>573</v>
+      </c>
+      <c r="F164" t="s">
         <v>580</v>
-      </c>
-      <c r="D164" t="s">
-        <v>581</v>
-      </c>
-      <c r="E164" t="s">
-        <v>575</v>
-      </c>
-      <c r="F164" t="s">
-        <v>582</v>
       </c>
       <c r="I164" t="s">
         <v>26</v>
@@ -8178,16 +8178,16 @@
         <v>27</v>
       </c>
       <c r="C165" t="s">
+        <v>581</v>
+      </c>
+      <c r="D165" t="s">
+        <v>582</v>
+      </c>
+      <c r="E165" t="s">
+        <v>573</v>
+      </c>
+      <c r="F165" t="s">
         <v>583</v>
-      </c>
-      <c r="D165" t="s">
-        <v>584</v>
-      </c>
-      <c r="E165" t="s">
-        <v>575</v>
-      </c>
-      <c r="F165" t="s">
-        <v>585</v>
       </c>
       <c r="I165" t="s">
         <v>26</v>
@@ -8201,16 +8201,16 @@
         <v>27</v>
       </c>
       <c r="C166" t="s">
+        <v>584</v>
+      </c>
+      <c r="D166" t="s">
+        <v>585</v>
+      </c>
+      <c r="E166" t="s">
+        <v>573</v>
+      </c>
+      <c r="F166" t="s">
         <v>586</v>
-      </c>
-      <c r="D166" t="s">
-        <v>587</v>
-      </c>
-      <c r="E166" t="s">
-        <v>575</v>
-      </c>
-      <c r="F166" t="s">
-        <v>588</v>
       </c>
       <c r="I166" t="s">
         <v>50</v>
@@ -8224,16 +8224,16 @@
         <v>27</v>
       </c>
       <c r="C167" t="s">
+        <v>587</v>
+      </c>
+      <c r="D167" t="s">
+        <v>588</v>
+      </c>
+      <c r="E167" t="s">
+        <v>573</v>
+      </c>
+      <c r="F167" t="s">
         <v>589</v>
-      </c>
-      <c r="D167" t="s">
-        <v>590</v>
-      </c>
-      <c r="E167" t="s">
-        <v>575</v>
-      </c>
-      <c r="F167" t="s">
-        <v>591</v>
       </c>
       <c r="I167" t="s">
         <v>26</v>
@@ -8247,16 +8247,16 @@
         <v>27</v>
       </c>
       <c r="C168" t="s">
+        <v>590</v>
+      </c>
+      <c r="D168" t="s">
+        <v>591</v>
+      </c>
+      <c r="E168" t="s">
+        <v>573</v>
+      </c>
+      <c r="F168" t="s">
         <v>592</v>
-      </c>
-      <c r="D168" t="s">
-        <v>593</v>
-      </c>
-      <c r="E168" t="s">
-        <v>575</v>
-      </c>
-      <c r="F168" t="s">
-        <v>594</v>
       </c>
       <c r="I168" t="s">
         <v>26</v>
@@ -8270,16 +8270,16 @@
         <v>27</v>
       </c>
       <c r="C169" t="s">
+        <v>593</v>
+      </c>
+      <c r="D169" t="s">
+        <v>594</v>
+      </c>
+      <c r="E169" t="s">
+        <v>573</v>
+      </c>
+      <c r="F169" t="s">
         <v>595</v>
-      </c>
-      <c r="D169" t="s">
-        <v>596</v>
-      </c>
-      <c r="E169" t="s">
-        <v>575</v>
-      </c>
-      <c r="F169" t="s">
-        <v>597</v>
       </c>
       <c r="I169" t="s">
         <v>50</v>
@@ -8293,16 +8293,16 @@
         <v>27</v>
       </c>
       <c r="C170" t="s">
+        <v>596</v>
+      </c>
+      <c r="D170" t="s">
+        <v>597</v>
+      </c>
+      <c r="E170" t="s">
         <v>598</v>
       </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
         <v>599</v>
-      </c>
-      <c r="E170" t="s">
-        <v>600</v>
-      </c>
-      <c r="F170" t="s">
-        <v>601</v>
       </c>
       <c r="I170" t="s">
         <v>50</v>
@@ -8316,16 +8316,16 @@
         <v>27</v>
       </c>
       <c r="C171" t="s">
+        <v>600</v>
+      </c>
+      <c r="D171" t="s">
+        <v>601</v>
+      </c>
+      <c r="E171" t="s">
+        <v>598</v>
+      </c>
+      <c r="F171" t="s">
         <v>602</v>
-      </c>
-      <c r="D171" t="s">
-        <v>603</v>
-      </c>
-      <c r="E171" t="s">
-        <v>600</v>
-      </c>
-      <c r="F171" t="s">
-        <v>604</v>
       </c>
       <c r="I171" t="s">
         <v>50</v>
@@ -8339,16 +8339,16 @@
         <v>27</v>
       </c>
       <c r="C172" t="s">
+        <v>603</v>
+      </c>
+      <c r="D172" t="s">
+        <v>604</v>
+      </c>
+      <c r="E172" t="s">
         <v>605</v>
       </c>
-      <c r="D172" t="s">
-        <v>606</v>
-      </c>
-      <c r="E172" t="s">
-        <v>607</v>
-      </c>
       <c r="F172" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -8362,16 +8362,16 @@
         <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D173" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E173" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F173" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I173" t="s">
         <v>26</v>
@@ -8385,16 +8385,16 @@
         <v>27</v>
       </c>
       <c r="C174" t="s">
+        <v>608</v>
+      </c>
+      <c r="D174" t="s">
+        <v>609</v>
+      </c>
+      <c r="E174" t="s">
         <v>610</v>
       </c>
-      <c r="D174" t="s">
+      <c r="F174" t="s">
         <v>611</v>
-      </c>
-      <c r="E174" t="s">
-        <v>612</v>
-      </c>
-      <c r="F174" t="s">
-        <v>613</v>
       </c>
       <c r="I174" t="s">
         <v>50</v>
@@ -8408,16 +8408,16 @@
         <v>27</v>
       </c>
       <c r="C175" t="s">
+        <v>612</v>
+      </c>
+      <c r="D175" t="s">
+        <v>613</v>
+      </c>
+      <c r="E175" t="s">
+        <v>610</v>
+      </c>
+      <c r="F175" t="s">
         <v>614</v>
-      </c>
-      <c r="D175" t="s">
-        <v>615</v>
-      </c>
-      <c r="E175" t="s">
-        <v>612</v>
-      </c>
-      <c r="F175" t="s">
-        <v>616</v>
       </c>
       <c r="I175" t="s">
         <v>50</v>
@@ -8431,16 +8431,16 @@
         <v>27</v>
       </c>
       <c r="C176" t="s">
+        <v>615</v>
+      </c>
+      <c r="D176" t="s">
+        <v>616</v>
+      </c>
+      <c r="E176" t="s">
         <v>617</v>
       </c>
-      <c r="D176" t="s">
+      <c r="F176" t="s">
         <v>618</v>
-      </c>
-      <c r="E176" t="s">
-        <v>619</v>
-      </c>
-      <c r="F176" t="s">
-        <v>620</v>
       </c>
       <c r="I176" t="s">
         <v>26</v>
@@ -8454,16 +8454,16 @@
         <v>27</v>
       </c>
       <c r="C177" t="s">
+        <v>619</v>
+      </c>
+      <c r="D177" t="s">
+        <v>620</v>
+      </c>
+      <c r="E177" t="s">
+        <v>617</v>
+      </c>
+      <c r="F177" t="s">
         <v>621</v>
-      </c>
-      <c r="D177" t="s">
-        <v>622</v>
-      </c>
-      <c r="E177" t="s">
-        <v>619</v>
-      </c>
-      <c r="F177" t="s">
-        <v>623</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -8477,16 +8477,16 @@
         <v>27</v>
       </c>
       <c r="C178" t="s">
+        <v>622</v>
+      </c>
+      <c r="D178" t="s">
+        <v>623</v>
+      </c>
+      <c r="E178" t="s">
         <v>624</v>
       </c>
-      <c r="D178" t="s">
+      <c r="F178" t="s">
         <v>625</v>
-      </c>
-      <c r="E178" t="s">
-        <v>626</v>
-      </c>
-      <c r="F178" t="s">
-        <v>627</v>
       </c>
       <c r="I178" t="s">
         <v>26</v>
@@ -8500,16 +8500,16 @@
         <v>27</v>
       </c>
       <c r="C179" t="s">
+        <v>626</v>
+      </c>
+      <c r="D179" t="s">
+        <v>627</v>
+      </c>
+      <c r="E179" t="s">
         <v>628</v>
       </c>
-      <c r="D179" t="s">
+      <c r="F179" t="s">
         <v>629</v>
-      </c>
-      <c r="E179" t="s">
-        <v>630</v>
-      </c>
-      <c r="F179" t="s">
-        <v>631</v>
       </c>
       <c r="I179" t="s">
         <v>55</v>
@@ -8523,16 +8523,16 @@
         <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D180" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E180" t="s">
         <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I180" t="s">
         <v>26</v>
@@ -8546,16 +8546,16 @@
         <v>27</v>
       </c>
       <c r="C181" t="s">
+        <v>633</v>
+      </c>
+      <c r="D181" t="s">
+        <v>634</v>
+      </c>
+      <c r="E181" t="s">
         <v>635</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" t="s">
         <v>636</v>
-      </c>
-      <c r="E181" t="s">
-        <v>637</v>
-      </c>
-      <c r="F181" t="s">
-        <v>638</v>
       </c>
       <c r="I181" t="s">
         <v>26</v>
@@ -8569,16 +8569,16 @@
         <v>27</v>
       </c>
       <c r="C182" t="s">
+        <v>637</v>
+      </c>
+      <c r="D182" t="s">
+        <v>638</v>
+      </c>
+      <c r="E182" t="s">
         <v>639</v>
       </c>
-      <c r="D182" t="s">
+      <c r="F182" t="s">
         <v>640</v>
-      </c>
-      <c r="E182" t="s">
-        <v>641</v>
-      </c>
-      <c r="F182" t="s">
-        <v>642</v>
       </c>
       <c r="I182" t="s">
         <v>26</v>
@@ -8592,19 +8592,19 @@
         <v>27</v>
       </c>
       <c r="C183" t="s">
+        <v>641</v>
+      </c>
+      <c r="D183" t="s">
+        <v>642</v>
+      </c>
+      <c r="E183" t="s">
+        <v>569</v>
+      </c>
+      <c r="F183" t="s">
         <v>643</v>
       </c>
-      <c r="D183" t="s">
+      <c r="I183" t="s">
         <v>644</v>
-      </c>
-      <c r="E183" t="s">
-        <v>571</v>
-      </c>
-      <c r="F183" t="s">
-        <v>645</v>
-      </c>
-      <c r="I183" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -8615,16 +8615,16 @@
         <v>27</v>
       </c>
       <c r="C184" t="s">
+        <v>645</v>
+      </c>
+      <c r="D184" t="s">
+        <v>646</v>
+      </c>
+      <c r="E184" t="s">
         <v>647</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" t="s">
         <v>648</v>
-      </c>
-      <c r="E184" t="s">
-        <v>649</v>
-      </c>
-      <c r="F184" t="s">
-        <v>650</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8638,16 +8638,16 @@
         <v>27</v>
       </c>
       <c r="C185" t="s">
+        <v>649</v>
+      </c>
+      <c r="D185" t="s">
+        <v>650</v>
+      </c>
+      <c r="E185" t="s">
         <v>651</v>
       </c>
-      <c r="D185" t="s">
+      <c r="F185" t="s">
         <v>652</v>
-      </c>
-      <c r="E185" t="s">
-        <v>653</v>
-      </c>
-      <c r="F185" t="s">
-        <v>654</v>
       </c>
       <c r="I185" t="s">
         <v>26</v>
@@ -8661,16 +8661,16 @@
         <v>27</v>
       </c>
       <c r="C186" t="s">
+        <v>653</v>
+      </c>
+      <c r="D186" t="s">
+        <v>654</v>
+      </c>
+      <c r="E186" t="s">
+        <v>651</v>
+      </c>
+      <c r="F186" t="s">
         <v>655</v>
-      </c>
-      <c r="D186" t="s">
-        <v>656</v>
-      </c>
-      <c r="E186" t="s">
-        <v>653</v>
-      </c>
-      <c r="F186" t="s">
-        <v>657</v>
       </c>
       <c r="I186" t="s">
         <v>26</v>
@@ -8684,16 +8684,16 @@
         <v>27</v>
       </c>
       <c r="C187" t="s">
+        <v>656</v>
+      </c>
+      <c r="D187" t="s">
+        <v>657</v>
+      </c>
+      <c r="E187" t="s">
         <v>658</v>
       </c>
-      <c r="D187" t="s">
+      <c r="F187" t="s">
         <v>659</v>
-      </c>
-      <c r="E187" t="s">
-        <v>660</v>
-      </c>
-      <c r="F187" t="s">
-        <v>661</v>
       </c>
       <c r="I187" t="s">
         <v>118</v>
@@ -8707,16 +8707,16 @@
         <v>27</v>
       </c>
       <c r="C188" t="s">
+        <v>660</v>
+      </c>
+      <c r="D188" t="s">
+        <v>661</v>
+      </c>
+      <c r="E188" t="s">
         <v>662</v>
       </c>
-      <c r="D188" t="s">
+      <c r="F188" t="s">
         <v>663</v>
-      </c>
-      <c r="E188" t="s">
-        <v>664</v>
-      </c>
-      <c r="F188" t="s">
-        <v>665</v>
       </c>
       <c r="I188" t="s">
         <v>26</v>
@@ -8730,16 +8730,16 @@
         <v>27</v>
       </c>
       <c r="C189" t="s">
+        <v>664</v>
+      </c>
+      <c r="D189" t="s">
+        <v>665</v>
+      </c>
+      <c r="E189" t="s">
         <v>666</v>
       </c>
-      <c r="D189" t="s">
+      <c r="F189" t="s">
         <v>667</v>
-      </c>
-      <c r="E189" t="s">
-        <v>668</v>
-      </c>
-      <c r="F189" t="s">
-        <v>669</v>
       </c>
       <c r="I189" t="s">
         <v>50</v>
@@ -8753,16 +8753,16 @@
         <v>27</v>
       </c>
       <c r="C190" t="s">
+        <v>668</v>
+      </c>
+      <c r="D190" t="s">
+        <v>669</v>
+      </c>
+      <c r="E190" t="s">
+        <v>573</v>
+      </c>
+      <c r="F190" t="s">
         <v>670</v>
-      </c>
-      <c r="D190" t="s">
-        <v>671</v>
-      </c>
-      <c r="E190" t="s">
-        <v>575</v>
-      </c>
-      <c r="F190" t="s">
-        <v>672</v>
       </c>
       <c r="I190" t="s">
         <v>26</v>
@@ -8776,19 +8776,19 @@
         <v>27</v>
       </c>
       <c r="C191" t="s">
+        <v>671</v>
+      </c>
+      <c r="D191" t="s">
+        <v>672</v>
+      </c>
+      <c r="E191" t="s">
         <v>673</v>
       </c>
-      <c r="D191" t="s">
+      <c r="F191" t="s">
         <v>674</v>
       </c>
-      <c r="E191" t="s">
+      <c r="I191" t="s">
         <v>675</v>
-      </c>
-      <c r="F191" t="s">
-        <v>676</v>
-      </c>
-      <c r="I191" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8799,16 +8799,16 @@
         <v>27</v>
       </c>
       <c r="C192" t="s">
+        <v>676</v>
+      </c>
+      <c r="D192" t="s">
+        <v>677</v>
+      </c>
+      <c r="E192" t="s">
+        <v>673</v>
+      </c>
+      <c r="F192" t="s">
         <v>678</v>
-      </c>
-      <c r="D192" t="s">
-        <v>679</v>
-      </c>
-      <c r="E192" t="s">
-        <v>675</v>
-      </c>
-      <c r="F192" t="s">
-        <v>680</v>
       </c>
       <c r="I192" t="s">
         <v>26</v>
@@ -8822,16 +8822,16 @@
         <v>27</v>
       </c>
       <c r="C193" t="s">
+        <v>679</v>
+      </c>
+      <c r="D193" t="s">
+        <v>680</v>
+      </c>
+      <c r="E193" t="s">
         <v>681</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" t="s">
         <v>682</v>
-      </c>
-      <c r="E193" t="s">
-        <v>683</v>
-      </c>
-      <c r="F193" t="s">
-        <v>684</v>
       </c>
       <c r="I193" t="s">
         <v>26</v>
@@ -8845,16 +8845,16 @@
         <v>27</v>
       </c>
       <c r="C194" t="s">
+        <v>683</v>
+      </c>
+      <c r="D194" t="s">
+        <v>684</v>
+      </c>
+      <c r="E194" t="s">
         <v>685</v>
       </c>
-      <c r="D194" t="s">
+      <c r="F194" t="s">
         <v>686</v>
-      </c>
-      <c r="E194" t="s">
-        <v>687</v>
-      </c>
-      <c r="F194" t="s">
-        <v>688</v>
       </c>
       <c r="I194" t="s">
         <v>26</v>
@@ -8868,16 +8868,16 @@
         <v>27</v>
       </c>
       <c r="C195" t="s">
+        <v>687</v>
+      </c>
+      <c r="D195" t="s">
+        <v>688</v>
+      </c>
+      <c r="E195" t="s">
+        <v>685</v>
+      </c>
+      <c r="F195" t="s">
         <v>689</v>
-      </c>
-      <c r="D195" t="s">
-        <v>690</v>
-      </c>
-      <c r="E195" t="s">
-        <v>687</v>
-      </c>
-      <c r="F195" t="s">
-        <v>691</v>
       </c>
       <c r="I195" t="s">
         <v>26</v>
@@ -8891,16 +8891,16 @@
         <v>27</v>
       </c>
       <c r="C196" t="s">
+        <v>690</v>
+      </c>
+      <c r="D196" t="s">
+        <v>691</v>
+      </c>
+      <c r="E196" t="s">
+        <v>685</v>
+      </c>
+      <c r="F196" t="s">
         <v>692</v>
-      </c>
-      <c r="D196" t="s">
-        <v>693</v>
-      </c>
-      <c r="E196" t="s">
-        <v>687</v>
-      </c>
-      <c r="F196" t="s">
-        <v>694</v>
       </c>
       <c r="I196" t="s">
         <v>26</v>
@@ -8914,16 +8914,16 @@
         <v>27</v>
       </c>
       <c r="C197" t="s">
+        <v>693</v>
+      </c>
+      <c r="D197" t="s">
+        <v>694</v>
+      </c>
+      <c r="E197" t="s">
         <v>695</v>
       </c>
-      <c r="D197" t="s">
+      <c r="F197" t="s">
         <v>696</v>
-      </c>
-      <c r="E197" t="s">
-        <v>697</v>
-      </c>
-      <c r="F197" t="s">
-        <v>698</v>
       </c>
       <c r="I197" t="s">
         <v>50</v>
@@ -8937,19 +8937,19 @@
         <v>27</v>
       </c>
       <c r="C198" t="s">
+        <v>697</v>
+      </c>
+      <c r="D198" t="s">
+        <v>698</v>
+      </c>
+      <c r="E198" t="s">
         <v>699</v>
       </c>
-      <c r="D198" t="s">
+      <c r="F198" t="s">
         <v>700</v>
       </c>
-      <c r="E198" t="s">
+      <c r="I198" t="s">
         <v>701</v>
-      </c>
-      <c r="F198" t="s">
-        <v>702</v>
-      </c>
-      <c r="I198" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8960,16 +8960,16 @@
         <v>27</v>
       </c>
       <c r="C199" t="s">
+        <v>702</v>
+      </c>
+      <c r="D199" t="s">
+        <v>703</v>
+      </c>
+      <c r="E199" t="s">
         <v>704</v>
       </c>
-      <c r="D199" t="s">
+      <c r="F199" t="s">
         <v>705</v>
-      </c>
-      <c r="E199" t="s">
-        <v>706</v>
-      </c>
-      <c r="F199" t="s">
-        <v>707</v>
       </c>
       <c r="I199" t="s">
         <v>50</v>
@@ -8983,16 +8983,16 @@
         <v>27</v>
       </c>
       <c r="C200" t="s">
+        <v>706</v>
+      </c>
+      <c r="D200" t="s">
+        <v>707</v>
+      </c>
+      <c r="E200" t="s">
+        <v>704</v>
+      </c>
+      <c r="F200" t="s">
         <v>708</v>
-      </c>
-      <c r="D200" t="s">
-        <v>709</v>
-      </c>
-      <c r="E200" t="s">
-        <v>706</v>
-      </c>
-      <c r="F200" t="s">
-        <v>710</v>
       </c>
       <c r="I200" t="s">
         <v>50</v>
@@ -9006,16 +9006,16 @@
         <v>27</v>
       </c>
       <c r="C201" t="s">
+        <v>709</v>
+      </c>
+      <c r="D201" t="s">
+        <v>710</v>
+      </c>
+      <c r="E201" t="s">
+        <v>704</v>
+      </c>
+      <c r="F201" t="s">
         <v>711</v>
-      </c>
-      <c r="D201" t="s">
-        <v>712</v>
-      </c>
-      <c r="E201" t="s">
-        <v>706</v>
-      </c>
-      <c r="F201" t="s">
-        <v>713</v>
       </c>
       <c r="I201" t="s">
         <v>50</v>
@@ -9029,16 +9029,16 @@
         <v>27</v>
       </c>
       <c r="C202" t="s">
+        <v>712</v>
+      </c>
+      <c r="D202" t="s">
+        <v>713</v>
+      </c>
+      <c r="E202" t="s">
+        <v>704</v>
+      </c>
+      <c r="F202" t="s">
         <v>714</v>
-      </c>
-      <c r="D202" t="s">
-        <v>715</v>
-      </c>
-      <c r="E202" t="s">
-        <v>706</v>
-      </c>
-      <c r="F202" t="s">
-        <v>716</v>
       </c>
       <c r="I202" t="s">
         <v>50</v>
@@ -9052,16 +9052,16 @@
         <v>27</v>
       </c>
       <c r="C203" t="s">
+        <v>715</v>
+      </c>
+      <c r="D203" t="s">
+        <v>716</v>
+      </c>
+      <c r="E203" t="s">
         <v>717</v>
       </c>
-      <c r="D203" t="s">
+      <c r="F203" t="s">
         <v>718</v>
-      </c>
-      <c r="E203" t="s">
-        <v>719</v>
-      </c>
-      <c r="F203" t="s">
-        <v>720</v>
       </c>
       <c r="I203" t="s">
         <v>50</v>
@@ -9075,19 +9075,19 @@
         <v>27</v>
       </c>
       <c r="C204" t="s">
+        <v>719</v>
+      </c>
+      <c r="D204" t="s">
+        <v>720</v>
+      </c>
+      <c r="E204" t="s">
+        <v>717</v>
+      </c>
+      <c r="F204" t="s">
         <v>721</v>
       </c>
-      <c r="D204" t="s">
+      <c r="I204" t="s">
         <v>722</v>
-      </c>
-      <c r="E204" t="s">
-        <v>719</v>
-      </c>
-      <c r="F204" t="s">
-        <v>723</v>
-      </c>
-      <c r="I204" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -9098,16 +9098,16 @@
         <v>27</v>
       </c>
       <c r="C205" t="s">
+        <v>723</v>
+      </c>
+      <c r="D205" t="s">
+        <v>724</v>
+      </c>
+      <c r="E205" t="s">
         <v>725</v>
       </c>
-      <c r="D205" t="s">
-        <v>726</v>
-      </c>
-      <c r="E205" t="s">
-        <v>727</v>
-      </c>
       <c r="F205" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I205" t="s">
         <v>50</v>
@@ -9121,19 +9121,19 @@
         <v>27</v>
       </c>
       <c r="C206" t="s">
+        <v>726</v>
+      </c>
+      <c r="D206" t="s">
+        <v>727</v>
+      </c>
+      <c r="E206" t="s">
+        <v>725</v>
+      </c>
+      <c r="F206" t="s">
+        <v>721</v>
+      </c>
+      <c r="I206" t="s">
         <v>728</v>
-      </c>
-      <c r="D206" t="s">
-        <v>729</v>
-      </c>
-      <c r="E206" t="s">
-        <v>727</v>
-      </c>
-      <c r="F206" t="s">
-        <v>723</v>
-      </c>
-      <c r="I206" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -9144,16 +9144,16 @@
         <v>27</v>
       </c>
       <c r="C207" t="s">
+        <v>729</v>
+      </c>
+      <c r="D207" t="s">
+        <v>730</v>
+      </c>
+      <c r="E207" t="s">
         <v>731</v>
       </c>
-      <c r="D207" t="s">
-        <v>732</v>
-      </c>
-      <c r="E207" t="s">
-        <v>733</v>
-      </c>
       <c r="F207" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I207" t="s">
         <v>50</v>
@@ -9167,19 +9167,19 @@
         <v>27</v>
       </c>
       <c r="C208" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D208" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E208" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F208" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I208" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -9190,16 +9190,16 @@
         <v>27</v>
       </c>
       <c r="C209" t="s">
+        <v>734</v>
+      </c>
+      <c r="D209" t="s">
+        <v>735</v>
+      </c>
+      <c r="E209" t="s">
         <v>736</v>
       </c>
-      <c r="D209" t="s">
-        <v>737</v>
-      </c>
-      <c r="E209" t="s">
-        <v>738</v>
-      </c>
       <c r="F209" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I209" t="s">
         <v>50</v>
@@ -9213,19 +9213,19 @@
         <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D210" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E210" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F210" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I210" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -9236,16 +9236,16 @@
         <v>27</v>
       </c>
       <c r="C211" t="s">
+        <v>739</v>
+      </c>
+      <c r="D211" t="s">
+        <v>740</v>
+      </c>
+      <c r="E211" t="s">
+        <v>635</v>
+      </c>
+      <c r="F211" t="s">
         <v>741</v>
-      </c>
-      <c r="D211" t="s">
-        <v>742</v>
-      </c>
-      <c r="E211" t="s">
-        <v>637</v>
-      </c>
-      <c r="F211" t="s">
-        <v>743</v>
       </c>
       <c r="I211" t="s">
         <v>50</v>
@@ -9259,16 +9259,16 @@
         <v>27</v>
       </c>
       <c r="C212" t="s">
+        <v>742</v>
+      </c>
+      <c r="D212" t="s">
+        <v>743</v>
+      </c>
+      <c r="E212" t="s">
+        <v>635</v>
+      </c>
+      <c r="F212" t="s">
         <v>744</v>
-      </c>
-      <c r="D212" t="s">
-        <v>745</v>
-      </c>
-      <c r="E212" t="s">
-        <v>637</v>
-      </c>
-      <c r="F212" t="s">
-        <v>746</v>
       </c>
       <c r="I212" t="s">
         <v>50</v>
@@ -9282,16 +9282,16 @@
         <v>27</v>
       </c>
       <c r="C213" t="s">
+        <v>745</v>
+      </c>
+      <c r="D213" t="s">
+        <v>746</v>
+      </c>
+      <c r="E213" t="s">
+        <v>569</v>
+      </c>
+      <c r="F213" t="s">
         <v>747</v>
-      </c>
-      <c r="D213" t="s">
-        <v>748</v>
-      </c>
-      <c r="E213" t="s">
-        <v>571</v>
-      </c>
-      <c r="F213" t="s">
-        <v>749</v>
       </c>
       <c r="I213" t="s">
         <v>50</v>
@@ -9305,16 +9305,16 @@
         <v>27</v>
       </c>
       <c r="C214" t="s">
+        <v>748</v>
+      </c>
+      <c r="D214" t="s">
+        <v>749</v>
+      </c>
+      <c r="E214" t="s">
         <v>750</v>
       </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>751</v>
-      </c>
-      <c r="E214" t="s">
-        <v>752</v>
-      </c>
-      <c r="F214" t="s">
-        <v>753</v>
       </c>
       <c r="I214" t="s">
         <v>26</v>
@@ -9328,16 +9328,16 @@
         <v>27</v>
       </c>
       <c r="C215" t="s">
+        <v>752</v>
+      </c>
+      <c r="D215" t="s">
+        <v>753</v>
+      </c>
+      <c r="E215" t="s">
         <v>754</v>
       </c>
-      <c r="D215" t="s">
+      <c r="F215" t="s">
         <v>755</v>
-      </c>
-      <c r="E215" t="s">
-        <v>756</v>
-      </c>
-      <c r="F215" t="s">
-        <v>757</v>
       </c>
       <c r="I215" t="s">
         <v>26</v>
@@ -9351,16 +9351,16 @@
         <v>27</v>
       </c>
       <c r="C216" t="s">
+        <v>756</v>
+      </c>
+      <c r="D216" t="s">
+        <v>757</v>
+      </c>
+      <c r="E216" t="s">
         <v>758</v>
       </c>
-      <c r="D216" t="s">
+      <c r="F216" t="s">
         <v>759</v>
-      </c>
-      <c r="E216" t="s">
-        <v>760</v>
-      </c>
-      <c r="F216" t="s">
-        <v>761</v>
       </c>
       <c r="I216" t="s">
         <v>26</v>
@@ -9374,16 +9374,16 @@
         <v>27</v>
       </c>
       <c r="C217" t="s">
+        <v>760</v>
+      </c>
+      <c r="D217" t="s">
+        <v>761</v>
+      </c>
+      <c r="E217" t="s">
         <v>762</v>
       </c>
-      <c r="D217" t="s">
+      <c r="F217" t="s">
         <v>763</v>
-      </c>
-      <c r="E217" t="s">
-        <v>764</v>
-      </c>
-      <c r="F217" t="s">
-        <v>765</v>
       </c>
       <c r="I217" t="s">
         <v>50</v>
@@ -9397,16 +9397,16 @@
         <v>27</v>
       </c>
       <c r="C218" t="s">
+        <v>764</v>
+      </c>
+      <c r="D218" t="s">
+        <v>765</v>
+      </c>
+      <c r="E218" t="s">
         <v>766</v>
       </c>
-      <c r="D218" t="s">
+      <c r="F218" t="s">
         <v>767</v>
-      </c>
-      <c r="E218" t="s">
-        <v>768</v>
-      </c>
-      <c r="F218" t="s">
-        <v>769</v>
       </c>
       <c r="I218" t="s">
         <v>26</v>
@@ -9420,16 +9420,16 @@
         <v>27</v>
       </c>
       <c r="C219" t="s">
+        <v>768</v>
+      </c>
+      <c r="D219" t="s">
+        <v>769</v>
+      </c>
+      <c r="E219" t="s">
         <v>770</v>
       </c>
-      <c r="D219" t="s">
+      <c r="F219" t="s">
         <v>771</v>
-      </c>
-      <c r="E219" t="s">
-        <v>772</v>
-      </c>
-      <c r="F219" t="s">
-        <v>773</v>
       </c>
       <c r="I219" t="s">
         <v>26</v>
@@ -9443,16 +9443,16 @@
         <v>27</v>
       </c>
       <c r="C220" t="s">
+        <v>768</v>
+      </c>
+      <c r="D220" t="s">
+        <v>772</v>
+      </c>
+      <c r="E220" t="s">
         <v>770</v>
       </c>
-      <c r="D220" t="s">
-        <v>774</v>
-      </c>
-      <c r="E220" t="s">
-        <v>772</v>
-      </c>
       <c r="F220" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I220" t="s">
         <v>26</v>
@@ -9466,16 +9466,16 @@
         <v>27</v>
       </c>
       <c r="C221" t="s">
+        <v>768</v>
+      </c>
+      <c r="D221" t="s">
+        <v>774</v>
+      </c>
+      <c r="E221" t="s">
         <v>770</v>
       </c>
-      <c r="D221" t="s">
-        <v>776</v>
-      </c>
-      <c r="E221" t="s">
-        <v>772</v>
-      </c>
       <c r="F221" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I221" t="s">
         <v>26</v>
@@ -9489,16 +9489,16 @@
         <v>27</v>
       </c>
       <c r="C222" t="s">
+        <v>768</v>
+      </c>
+      <c r="D222" t="s">
+        <v>776</v>
+      </c>
+      <c r="E222" t="s">
         <v>770</v>
       </c>
-      <c r="D222" t="s">
-        <v>778</v>
-      </c>
-      <c r="E222" t="s">
-        <v>772</v>
-      </c>
       <c r="F222" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I222" t="s">
         <v>26</v>
@@ -9512,16 +9512,16 @@
         <v>27</v>
       </c>
       <c r="C223" t="s">
+        <v>768</v>
+      </c>
+      <c r="D223" t="s">
+        <v>778</v>
+      </c>
+      <c r="E223" t="s">
         <v>770</v>
       </c>
-      <c r="D223" t="s">
-        <v>780</v>
-      </c>
-      <c r="E223" t="s">
-        <v>772</v>
-      </c>
       <c r="F223" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I223" t="s">
         <v>26</v>
@@ -9535,16 +9535,16 @@
         <v>27</v>
       </c>
       <c r="C224" t="s">
+        <v>768</v>
+      </c>
+      <c r="D224" t="s">
+        <v>780</v>
+      </c>
+      <c r="E224" t="s">
         <v>770</v>
       </c>
-      <c r="D224" t="s">
-        <v>782</v>
-      </c>
-      <c r="E224" t="s">
-        <v>772</v>
-      </c>
       <c r="F224" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I224" t="s">
         <v>26</v>
@@ -9558,16 +9558,16 @@
         <v>27</v>
       </c>
       <c r="C225" t="s">
+        <v>768</v>
+      </c>
+      <c r="D225" t="s">
+        <v>782</v>
+      </c>
+      <c r="E225" t="s">
         <v>770</v>
       </c>
-      <c r="D225" t="s">
-        <v>784</v>
-      </c>
-      <c r="E225" t="s">
-        <v>772</v>
-      </c>
       <c r="F225" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I225" t="s">
         <v>26</v>
@@ -9581,16 +9581,16 @@
         <v>27</v>
       </c>
       <c r="C226" t="s">
+        <v>768</v>
+      </c>
+      <c r="D226" t="s">
+        <v>784</v>
+      </c>
+      <c r="E226" t="s">
         <v>770</v>
       </c>
-      <c r="D226" t="s">
-        <v>786</v>
-      </c>
-      <c r="E226" t="s">
-        <v>772</v>
-      </c>
       <c r="F226" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I226" t="s">
         <v>26</v>
@@ -9604,16 +9604,16 @@
         <v>27</v>
       </c>
       <c r="C227" t="s">
+        <v>768</v>
+      </c>
+      <c r="D227" t="s">
+        <v>786</v>
+      </c>
+      <c r="E227" t="s">
         <v>770</v>
       </c>
-      <c r="D227" t="s">
-        <v>788</v>
-      </c>
-      <c r="E227" t="s">
-        <v>772</v>
-      </c>
       <c r="F227" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I227" t="s">
         <v>26</v>
@@ -9627,16 +9627,16 @@
         <v>27</v>
       </c>
       <c r="C228" t="s">
+        <v>768</v>
+      </c>
+      <c r="D228" t="s">
+        <v>788</v>
+      </c>
+      <c r="E228" t="s">
         <v>770</v>
       </c>
-      <c r="D228" t="s">
-        <v>790</v>
-      </c>
-      <c r="E228" t="s">
-        <v>772</v>
-      </c>
       <c r="F228" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I228" t="s">
         <v>26</v>
@@ -9650,16 +9650,16 @@
         <v>27</v>
       </c>
       <c r="C229" t="s">
+        <v>768</v>
+      </c>
+      <c r="D229" t="s">
+        <v>790</v>
+      </c>
+      <c r="E229" t="s">
         <v>770</v>
       </c>
-      <c r="D229" t="s">
-        <v>792</v>
-      </c>
-      <c r="E229" t="s">
-        <v>772</v>
-      </c>
       <c r="F229" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9673,16 +9673,16 @@
         <v>27</v>
       </c>
       <c r="C230" t="s">
+        <v>768</v>
+      </c>
+      <c r="D230" t="s">
+        <v>792</v>
+      </c>
+      <c r="E230" t="s">
         <v>770</v>
       </c>
-      <c r="D230" t="s">
-        <v>794</v>
-      </c>
-      <c r="E230" t="s">
-        <v>772</v>
-      </c>
       <c r="F230" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I230" t="s">
         <v>26</v>
@@ -9696,16 +9696,16 @@
         <v>27</v>
       </c>
       <c r="C231" t="s">
+        <v>794</v>
+      </c>
+      <c r="D231" t="s">
+        <v>795</v>
+      </c>
+      <c r="E231" t="s">
         <v>796</v>
       </c>
-      <c r="D231" t="s">
+      <c r="F231" t="s">
         <v>797</v>
-      </c>
-      <c r="E231" t="s">
-        <v>798</v>
-      </c>
-      <c r="F231" t="s">
-        <v>799</v>
       </c>
       <c r="I231" t="s">
         <v>26</v>
@@ -9719,16 +9719,16 @@
         <v>27</v>
       </c>
       <c r="C232" t="s">
+        <v>798</v>
+      </c>
+      <c r="D232" t="s">
+        <v>799</v>
+      </c>
+      <c r="E232" t="s">
         <v>800</v>
       </c>
-      <c r="D232" t="s">
+      <c r="F232" t="s">
         <v>801</v>
-      </c>
-      <c r="E232" t="s">
-        <v>802</v>
-      </c>
-      <c r="F232" t="s">
-        <v>803</v>
       </c>
       <c r="I232" t="s">
         <v>50</v>
@@ -9742,16 +9742,16 @@
         <v>27</v>
       </c>
       <c r="C233" t="s">
+        <v>802</v>
+      </c>
+      <c r="D233" t="s">
+        <v>803</v>
+      </c>
+      <c r="E233" t="s">
+        <v>800</v>
+      </c>
+      <c r="F233" t="s">
         <v>804</v>
-      </c>
-      <c r="D233" t="s">
-        <v>805</v>
-      </c>
-      <c r="E233" t="s">
-        <v>802</v>
-      </c>
-      <c r="F233" t="s">
-        <v>806</v>
       </c>
       <c r="I233" t="s">
         <v>50</v>
@@ -9765,16 +9765,16 @@
         <v>27</v>
       </c>
       <c r="C234" t="s">
+        <v>805</v>
+      </c>
+      <c r="D234" t="s">
+        <v>806</v>
+      </c>
+      <c r="E234" t="s">
         <v>807</v>
       </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>808</v>
-      </c>
-      <c r="E234" t="s">
-        <v>809</v>
-      </c>
-      <c r="F234" t="s">
-        <v>810</v>
       </c>
       <c r="I234" t="s">
         <v>50</v>
@@ -9788,16 +9788,16 @@
         <v>27</v>
       </c>
       <c r="C235" t="s">
+        <v>809</v>
+      </c>
+      <c r="D235" t="s">
+        <v>810</v>
+      </c>
+      <c r="E235" t="s">
+        <v>807</v>
+      </c>
+      <c r="F235" t="s">
         <v>811</v>
-      </c>
-      <c r="D235" t="s">
-        <v>812</v>
-      </c>
-      <c r="E235" t="s">
-        <v>809</v>
-      </c>
-      <c r="F235" t="s">
-        <v>813</v>
       </c>
       <c r="I235" t="s">
         <v>50</v>
@@ -9811,16 +9811,16 @@
         <v>27</v>
       </c>
       <c r="C236" t="s">
+        <v>812</v>
+      </c>
+      <c r="D236" t="s">
+        <v>813</v>
+      </c>
+      <c r="E236" t="s">
         <v>814</v>
       </c>
-      <c r="D236" t="s">
+      <c r="F236" t="s">
         <v>815</v>
-      </c>
-      <c r="E236" t="s">
-        <v>816</v>
-      </c>
-      <c r="F236" t="s">
-        <v>817</v>
       </c>
       <c r="I236" t="s">
         <v>50</v>
@@ -9834,16 +9834,16 @@
         <v>27</v>
       </c>
       <c r="C237" t="s">
+        <v>816</v>
+      </c>
+      <c r="D237" t="s">
+        <v>817</v>
+      </c>
+      <c r="E237" t="s">
+        <v>814</v>
+      </c>
+      <c r="F237" t="s">
         <v>818</v>
-      </c>
-      <c r="D237" t="s">
-        <v>819</v>
-      </c>
-      <c r="E237" t="s">
-        <v>816</v>
-      </c>
-      <c r="F237" t="s">
-        <v>820</v>
       </c>
       <c r="I237" t="s">
         <v>50</v>
@@ -9857,16 +9857,16 @@
         <v>27</v>
       </c>
       <c r="C238" t="s">
+        <v>819</v>
+      </c>
+      <c r="D238" t="s">
+        <v>820</v>
+      </c>
+      <c r="E238" t="s">
         <v>821</v>
       </c>
-      <c r="D238" t="s">
+      <c r="F238" t="s">
         <v>822</v>
-      </c>
-      <c r="E238" t="s">
-        <v>823</v>
-      </c>
-      <c r="F238" t="s">
-        <v>824</v>
       </c>
       <c r="I238" t="s">
         <v>26</v>
@@ -9880,16 +9880,16 @@
         <v>27</v>
       </c>
       <c r="C239" t="s">
+        <v>823</v>
+      </c>
+      <c r="D239" t="s">
+        <v>824</v>
+      </c>
+      <c r="E239" t="s">
+        <v>821</v>
+      </c>
+      <c r="F239" t="s">
         <v>825</v>
-      </c>
-      <c r="D239" t="s">
-        <v>826</v>
-      </c>
-      <c r="E239" t="s">
-        <v>823</v>
-      </c>
-      <c r="F239" t="s">
-        <v>827</v>
       </c>
       <c r="I239" t="s">
         <v>50</v>
@@ -9903,16 +9903,16 @@
         <v>27</v>
       </c>
       <c r="C240" t="s">
+        <v>826</v>
+      </c>
+      <c r="D240" t="s">
+        <v>827</v>
+      </c>
+      <c r="E240" t="s">
         <v>828</v>
       </c>
-      <c r="D240" t="s">
+      <c r="F240" t="s">
         <v>829</v>
-      </c>
-      <c r="E240" t="s">
-        <v>830</v>
-      </c>
-      <c r="F240" t="s">
-        <v>831</v>
       </c>
       <c r="I240" t="s">
         <v>26</v>
@@ -9926,16 +9926,16 @@
         <v>27</v>
       </c>
       <c r="C241" t="s">
+        <v>830</v>
+      </c>
+      <c r="D241" t="s">
+        <v>831</v>
+      </c>
+      <c r="E241" t="s">
         <v>832</v>
       </c>
-      <c r="D241" t="s">
+      <c r="F241" t="s">
         <v>833</v>
-      </c>
-      <c r="E241" t="s">
-        <v>834</v>
-      </c>
-      <c r="F241" t="s">
-        <v>835</v>
       </c>
       <c r="I241" t="s">
         <v>26</v>
@@ -9949,16 +9949,16 @@
         <v>27</v>
       </c>
       <c r="C242" t="s">
+        <v>834</v>
+      </c>
+      <c r="D242" t="s">
+        <v>835</v>
+      </c>
+      <c r="E242" t="s">
+        <v>832</v>
+      </c>
+      <c r="F242" t="s">
         <v>836</v>
-      </c>
-      <c r="D242" t="s">
-        <v>837</v>
-      </c>
-      <c r="E242" t="s">
-        <v>834</v>
-      </c>
-      <c r="F242" t="s">
-        <v>838</v>
       </c>
       <c r="I242" t="s">
         <v>26</v>
@@ -9972,16 +9972,16 @@
         <v>27</v>
       </c>
       <c r="C243" t="s">
+        <v>837</v>
+      </c>
+      <c r="D243" t="s">
+        <v>838</v>
+      </c>
+      <c r="E243" t="s">
+        <v>832</v>
+      </c>
+      <c r="F243" t="s">
         <v>839</v>
-      </c>
-      <c r="D243" t="s">
-        <v>840</v>
-      </c>
-      <c r="E243" t="s">
-        <v>834</v>
-      </c>
-      <c r="F243" t="s">
-        <v>841</v>
       </c>
       <c r="I243" t="s">
         <v>26</v>
@@ -9995,16 +9995,16 @@
         <v>27</v>
       </c>
       <c r="C244" t="s">
+        <v>840</v>
+      </c>
+      <c r="D244" t="s">
+        <v>841</v>
+      </c>
+      <c r="E244" t="s">
         <v>842</v>
       </c>
-      <c r="D244" t="s">
+      <c r="F244" t="s">
         <v>843</v>
-      </c>
-      <c r="E244" t="s">
-        <v>844</v>
-      </c>
-      <c r="F244" t="s">
-        <v>845</v>
       </c>
       <c r="I244" t="s">
         <v>26</v>
@@ -10018,16 +10018,16 @@
         <v>27</v>
       </c>
       <c r="C245" t="s">
+        <v>844</v>
+      </c>
+      <c r="D245" t="s">
+        <v>845</v>
+      </c>
+      <c r="E245" t="s">
+        <v>832</v>
+      </c>
+      <c r="F245" t="s">
         <v>846</v>
-      </c>
-      <c r="D245" t="s">
-        <v>847</v>
-      </c>
-      <c r="E245" t="s">
-        <v>834</v>
-      </c>
-      <c r="F245" t="s">
-        <v>848</v>
       </c>
       <c r="I245" t="s">
         <v>55</v>
@@ -10041,16 +10041,16 @@
         <v>27</v>
       </c>
       <c r="C246" t="s">
+        <v>847</v>
+      </c>
+      <c r="D246" t="s">
+        <v>848</v>
+      </c>
+      <c r="E246" t="s">
+        <v>832</v>
+      </c>
+      <c r="F246" t="s">
         <v>849</v>
-      </c>
-      <c r="D246" t="s">
-        <v>850</v>
-      </c>
-      <c r="E246" t="s">
-        <v>834</v>
-      </c>
-      <c r="F246" t="s">
-        <v>851</v>
       </c>
       <c r="I246" t="s">
         <v>26</v>
@@ -10064,16 +10064,16 @@
         <v>27</v>
       </c>
       <c r="C247" t="s">
+        <v>850</v>
+      </c>
+      <c r="D247" t="s">
+        <v>851</v>
+      </c>
+      <c r="E247" t="s">
+        <v>832</v>
+      </c>
+      <c r="F247" t="s">
         <v>852</v>
-      </c>
-      <c r="D247" t="s">
-        <v>853</v>
-      </c>
-      <c r="E247" t="s">
-        <v>834</v>
-      </c>
-      <c r="F247" t="s">
-        <v>854</v>
       </c>
       <c r="I247" t="s">
         <v>39</v>
@@ -10087,16 +10087,16 @@
         <v>27</v>
       </c>
       <c r="C248" t="s">
+        <v>853</v>
+      </c>
+      <c r="D248" t="s">
+        <v>854</v>
+      </c>
+      <c r="E248" t="s">
+        <v>832</v>
+      </c>
+      <c r="F248" t="s">
         <v>855</v>
-      </c>
-      <c r="D248" t="s">
-        <v>856</v>
-      </c>
-      <c r="E248" t="s">
-        <v>834</v>
-      </c>
-      <c r="F248" t="s">
-        <v>857</v>
       </c>
       <c r="I248" t="s">
         <v>26</v>
@@ -10110,16 +10110,16 @@
         <v>27</v>
       </c>
       <c r="C249" t="s">
+        <v>856</v>
+      </c>
+      <c r="D249" t="s">
+        <v>857</v>
+      </c>
+      <c r="E249" t="s">
         <v>858</v>
       </c>
-      <c r="D249" t="s">
+      <c r="F249" t="s">
         <v>859</v>
-      </c>
-      <c r="E249" t="s">
-        <v>860</v>
-      </c>
-      <c r="F249" t="s">
-        <v>861</v>
       </c>
       <c r="I249" t="s">
         <v>26</v>
@@ -10133,16 +10133,16 @@
         <v>27</v>
       </c>
       <c r="C250" t="s">
+        <v>860</v>
+      </c>
+      <c r="D250" t="s">
+        <v>861</v>
+      </c>
+      <c r="E250" t="s">
         <v>862</v>
       </c>
-      <c r="D250" t="s">
+      <c r="F250" t="s">
         <v>863</v>
-      </c>
-      <c r="E250" t="s">
-        <v>864</v>
-      </c>
-      <c r="F250" t="s">
-        <v>865</v>
       </c>
       <c r="I250" t="s">
         <v>50</v>
@@ -10156,16 +10156,16 @@
         <v>27</v>
       </c>
       <c r="C251" t="s">
+        <v>864</v>
+      </c>
+      <c r="D251" t="s">
+        <v>865</v>
+      </c>
+      <c r="E251" t="s">
+        <v>862</v>
+      </c>
+      <c r="F251" t="s">
         <v>866</v>
-      </c>
-      <c r="D251" t="s">
-        <v>867</v>
-      </c>
-      <c r="E251" t="s">
-        <v>864</v>
-      </c>
-      <c r="F251" t="s">
-        <v>868</v>
       </c>
       <c r="I251" t="s">
         <v>50</v>
@@ -10179,16 +10179,16 @@
         <v>27</v>
       </c>
       <c r="C252" t="s">
+        <v>867</v>
+      </c>
+      <c r="D252" t="s">
+        <v>868</v>
+      </c>
+      <c r="E252" t="s">
+        <v>862</v>
+      </c>
+      <c r="F252" t="s">
         <v>869</v>
-      </c>
-      <c r="D252" t="s">
-        <v>870</v>
-      </c>
-      <c r="E252" t="s">
-        <v>864</v>
-      </c>
-      <c r="F252" t="s">
-        <v>871</v>
       </c>
       <c r="I252" t="s">
         <v>50</v>
@@ -10202,16 +10202,16 @@
         <v>27</v>
       </c>
       <c r="C253" t="s">
+        <v>870</v>
+      </c>
+      <c r="D253" t="s">
+        <v>871</v>
+      </c>
+      <c r="E253" t="s">
+        <v>862</v>
+      </c>
+      <c r="F253" t="s">
         <v>872</v>
-      </c>
-      <c r="D253" t="s">
-        <v>873</v>
-      </c>
-      <c r="E253" t="s">
-        <v>864</v>
-      </c>
-      <c r="F253" t="s">
-        <v>874</v>
       </c>
       <c r="I253" t="s">
         <v>50</v>
@@ -10225,16 +10225,16 @@
         <v>27</v>
       </c>
       <c r="C254" t="s">
+        <v>873</v>
+      </c>
+      <c r="D254" t="s">
+        <v>874</v>
+      </c>
+      <c r="E254" t="s">
         <v>875</v>
       </c>
-      <c r="D254" t="s">
+      <c r="F254" t="s">
         <v>876</v>
-      </c>
-      <c r="E254" t="s">
-        <v>877</v>
-      </c>
-      <c r="F254" t="s">
-        <v>878</v>
       </c>
       <c r="I254" t="s">
         <v>26</v>
@@ -10248,19 +10248,19 @@
         <v>27</v>
       </c>
       <c r="C255" t="s">
+        <v>877</v>
+      </c>
+      <c r="D255" t="s">
+        <v>878</v>
+      </c>
+      <c r="E255" t="s">
+        <v>875</v>
+      </c>
+      <c r="F255" t="s">
         <v>879</v>
       </c>
-      <c r="D255" t="s">
-        <v>880</v>
-      </c>
-      <c r="E255" t="s">
-        <v>877</v>
-      </c>
-      <c r="F255" t="s">
-        <v>881</v>
-      </c>
       <c r="I255" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10271,16 +10271,16 @@
         <v>27</v>
       </c>
       <c r="C256" t="s">
+        <v>880</v>
+      </c>
+      <c r="D256" t="s">
+        <v>881</v>
+      </c>
+      <c r="E256" t="s">
+        <v>875</v>
+      </c>
+      <c r="F256" t="s">
         <v>882</v>
-      </c>
-      <c r="D256" t="s">
-        <v>883</v>
-      </c>
-      <c r="E256" t="s">
-        <v>877</v>
-      </c>
-      <c r="F256" t="s">
-        <v>884</v>
       </c>
       <c r="I256" t="s">
         <v>26</v>
@@ -10294,16 +10294,16 @@
         <v>27</v>
       </c>
       <c r="C257" t="s">
+        <v>883</v>
+      </c>
+      <c r="D257" t="s">
+        <v>884</v>
+      </c>
+      <c r="E257" t="s">
         <v>885</v>
       </c>
-      <c r="D257" t="s">
+      <c r="F257" t="s">
         <v>886</v>
-      </c>
-      <c r="E257" t="s">
-        <v>887</v>
-      </c>
-      <c r="F257" t="s">
-        <v>888</v>
       </c>
       <c r="I257" t="s">
         <v>50</v>
@@ -10317,16 +10317,16 @@
         <v>27</v>
       </c>
       <c r="C258" t="s">
+        <v>887</v>
+      </c>
+      <c r="D258" t="s">
+        <v>888</v>
+      </c>
+      <c r="E258" t="s">
+        <v>573</v>
+      </c>
+      <c r="F258" t="s">
         <v>889</v>
-      </c>
-      <c r="D258" t="s">
-        <v>890</v>
-      </c>
-      <c r="E258" t="s">
-        <v>575</v>
-      </c>
-      <c r="F258" t="s">
-        <v>891</v>
       </c>
       <c r="I258" t="s">
         <v>26</v>
@@ -10340,19 +10340,19 @@
         <v>27</v>
       </c>
       <c r="C259" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D259" t="s">
+        <v>890</v>
+      </c>
+      <c r="E259" t="s">
+        <v>562</v>
+      </c>
+      <c r="F259" t="s">
+        <v>891</v>
+      </c>
+      <c r="I259" t="s">
         <v>892</v>
-      </c>
-      <c r="E259" t="s">
-        <v>564</v>
-      </c>
-      <c r="F259" t="s">
-        <v>893</v>
-      </c>
-      <c r="I259" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10363,16 +10363,16 @@
         <v>27</v>
       </c>
       <c r="C260" t="s">
+        <v>893</v>
+      </c>
+      <c r="D260" t="s">
+        <v>894</v>
+      </c>
+      <c r="E260" t="s">
         <v>895</v>
       </c>
-      <c r="D260" t="s">
+      <c r="F260" t="s">
         <v>896</v>
-      </c>
-      <c r="E260" t="s">
-        <v>897</v>
-      </c>
-      <c r="F260" t="s">
-        <v>898</v>
       </c>
       <c r="I260" t="s">
         <v>26</v>
@@ -10386,16 +10386,16 @@
         <v>27</v>
       </c>
       <c r="C261" t="s">
+        <v>897</v>
+      </c>
+      <c r="D261" t="s">
+        <v>898</v>
+      </c>
+      <c r="E261" t="s">
+        <v>895</v>
+      </c>
+      <c r="F261" t="s">
         <v>899</v>
-      </c>
-      <c r="D261" t="s">
-        <v>900</v>
-      </c>
-      <c r="E261" t="s">
-        <v>897</v>
-      </c>
-      <c r="F261" t="s">
-        <v>901</v>
       </c>
       <c r="I261" t="s">
         <v>26</v>
@@ -10409,16 +10409,16 @@
         <v>27</v>
       </c>
       <c r="C262" t="s">
+        <v>900</v>
+      </c>
+      <c r="D262" t="s">
+        <v>901</v>
+      </c>
+      <c r="E262" t="s">
         <v>902</v>
       </c>
-      <c r="D262" t="s">
+      <c r="F262" t="s">
         <v>903</v>
-      </c>
-      <c r="E262" t="s">
-        <v>904</v>
-      </c>
-      <c r="F262" t="s">
-        <v>905</v>
       </c>
       <c r="I262" t="s">
         <v>50</v>
@@ -10432,19 +10432,19 @@
         <v>27</v>
       </c>
       <c r="C263" t="s">
+        <v>904</v>
+      </c>
+      <c r="D263" t="s">
+        <v>905</v>
+      </c>
+      <c r="E263" t="s">
         <v>906</v>
       </c>
-      <c r="D263" t="s">
+      <c r="F263" t="s">
         <v>907</v>
       </c>
-      <c r="E263" t="s">
-        <v>908</v>
-      </c>
-      <c r="F263" t="s">
-        <v>909</v>
-      </c>
       <c r="I263" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10455,16 +10455,16 @@
         <v>27</v>
       </c>
       <c r="C264" t="s">
+        <v>908</v>
+      </c>
+      <c r="D264" t="s">
+        <v>909</v>
+      </c>
+      <c r="E264" t="s">
         <v>910</v>
       </c>
-      <c r="D264" t="s">
+      <c r="F264" t="s">
         <v>911</v>
-      </c>
-      <c r="E264" t="s">
-        <v>912</v>
-      </c>
-      <c r="F264" t="s">
-        <v>913</v>
       </c>
       <c r="I264" t="s">
         <v>50</v>
@@ -10478,16 +10478,16 @@
         <v>27</v>
       </c>
       <c r="C265" t="s">
+        <v>912</v>
+      </c>
+      <c r="D265" t="s">
+        <v>913</v>
+      </c>
+      <c r="E265" t="s">
+        <v>910</v>
+      </c>
+      <c r="F265" t="s">
         <v>914</v>
-      </c>
-      <c r="D265" t="s">
-        <v>915</v>
-      </c>
-      <c r="E265" t="s">
-        <v>912</v>
-      </c>
-      <c r="F265" t="s">
-        <v>916</v>
       </c>
       <c r="I265" t="s">
         <v>50</v>
@@ -10501,16 +10501,16 @@
         <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D266" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E266" t="s">
         <v>37</v>
       </c>
       <c r="F266" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I266" t="s">
         <v>50</v>
@@ -10524,16 +10524,16 @@
         <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D267" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E267" t="s">
         <v>37</v>
       </c>
       <c r="F267" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I267" t="s">
         <v>26</v>
@@ -10547,16 +10547,16 @@
         <v>27</v>
       </c>
       <c r="C268" t="s">
+        <v>921</v>
+      </c>
+      <c r="D268" t="s">
+        <v>922</v>
+      </c>
+      <c r="E268" t="s">
         <v>923</v>
       </c>
-      <c r="D268" t="s">
+      <c r="F268" t="s">
         <v>924</v>
-      </c>
-      <c r="E268" t="s">
-        <v>925</v>
-      </c>
-      <c r="F268" t="s">
-        <v>926</v>
       </c>
       <c r="I268" t="s">
         <v>26</v>
@@ -10570,16 +10570,16 @@
         <v>27</v>
       </c>
       <c r="C269" t="s">
+        <v>925</v>
+      </c>
+      <c r="D269" t="s">
+        <v>926</v>
+      </c>
+      <c r="E269" t="s">
         <v>927</v>
       </c>
-      <c r="D269" t="s">
+      <c r="F269" t="s">
         <v>928</v>
-      </c>
-      <c r="E269" t="s">
-        <v>929</v>
-      </c>
-      <c r="F269" t="s">
-        <v>930</v>
       </c>
       <c r="I269" t="s">
         <v>26</v>
@@ -10593,16 +10593,16 @@
         <v>27</v>
       </c>
       <c r="C270" t="s">
+        <v>929</v>
+      </c>
+      <c r="D270" t="s">
+        <v>930</v>
+      </c>
+      <c r="E270" t="s">
         <v>931</v>
       </c>
-      <c r="D270" t="s">
+      <c r="F270" t="s">
         <v>932</v>
-      </c>
-      <c r="E270" t="s">
-        <v>933</v>
-      </c>
-      <c r="F270" t="s">
-        <v>934</v>
       </c>
       <c r="I270" t="s">
         <v>50</v>
@@ -10616,16 +10616,16 @@
         <v>27</v>
       </c>
       <c r="C271" t="s">
+        <v>933</v>
+      </c>
+      <c r="D271" t="s">
+        <v>934</v>
+      </c>
+      <c r="E271" t="s">
+        <v>931</v>
+      </c>
+      <c r="F271" t="s">
         <v>935</v>
-      </c>
-      <c r="D271" t="s">
-        <v>936</v>
-      </c>
-      <c r="E271" t="s">
-        <v>933</v>
-      </c>
-      <c r="F271" t="s">
-        <v>937</v>
       </c>
       <c r="I271" t="s">
         <v>50</v>
@@ -10639,16 +10639,16 @@
         <v>27</v>
       </c>
       <c r="C272" t="s">
+        <v>936</v>
+      </c>
+      <c r="D272" t="s">
+        <v>937</v>
+      </c>
+      <c r="E272" t="s">
+        <v>931</v>
+      </c>
+      <c r="F272" t="s">
         <v>938</v>
-      </c>
-      <c r="D272" t="s">
-        <v>939</v>
-      </c>
-      <c r="E272" t="s">
-        <v>933</v>
-      </c>
-      <c r="F272" t="s">
-        <v>940</v>
       </c>
       <c r="I272" t="s">
         <v>50</v>
@@ -10662,16 +10662,16 @@
         <v>27</v>
       </c>
       <c r="C273" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D273" t="s">
+        <v>930</v>
+      </c>
+      <c r="E273" t="s">
+        <v>940</v>
+      </c>
+      <c r="F273" t="s">
         <v>932</v>
-      </c>
-      <c r="E273" t="s">
-        <v>942</v>
-      </c>
-      <c r="F273" t="s">
-        <v>934</v>
       </c>
       <c r="I273" t="s">
         <v>50</v>
@@ -10685,16 +10685,16 @@
         <v>27</v>
       </c>
       <c r="C274" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D274" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E274" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F274" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I274" t="s">
         <v>50</v>
@@ -10708,16 +10708,16 @@
         <v>27</v>
       </c>
       <c r="C275" t="s">
+        <v>943</v>
+      </c>
+      <c r="D275" t="s">
+        <v>944</v>
+      </c>
+      <c r="E275" t="s">
+        <v>940</v>
+      </c>
+      <c r="F275" t="s">
         <v>945</v>
-      </c>
-      <c r="D275" t="s">
-        <v>946</v>
-      </c>
-      <c r="E275" t="s">
-        <v>942</v>
-      </c>
-      <c r="F275" t="s">
-        <v>947</v>
       </c>
       <c r="I275" t="s">
         <v>26</v>
@@ -10731,16 +10731,16 @@
         <v>27</v>
       </c>
       <c r="C276" t="s">
+        <v>946</v>
+      </c>
+      <c r="D276" t="s">
+        <v>947</v>
+      </c>
+      <c r="E276" t="s">
         <v>948</v>
       </c>
-      <c r="D276" t="s">
+      <c r="F276" t="s">
         <v>949</v>
-      </c>
-      <c r="E276" t="s">
-        <v>950</v>
-      </c>
-      <c r="F276" t="s">
-        <v>951</v>
       </c>
       <c r="I276" t="s">
         <v>50</v>
@@ -10754,16 +10754,16 @@
         <v>27</v>
       </c>
       <c r="C277" t="s">
+        <v>950</v>
+      </c>
+      <c r="D277" t="s">
+        <v>951</v>
+      </c>
+      <c r="E277" t="s">
+        <v>948</v>
+      </c>
+      <c r="F277" t="s">
         <v>952</v>
-      </c>
-      <c r="D277" t="s">
-        <v>953</v>
-      </c>
-      <c r="E277" t="s">
-        <v>950</v>
-      </c>
-      <c r="F277" t="s">
-        <v>954</v>
       </c>
       <c r="I277" t="s">
         <v>50</v>
@@ -10777,16 +10777,16 @@
         <v>27</v>
       </c>
       <c r="C278" t="s">
+        <v>953</v>
+      </c>
+      <c r="D278" t="s">
+        <v>954</v>
+      </c>
+      <c r="E278" t="s">
         <v>955</v>
       </c>
-      <c r="D278" t="s">
+      <c r="F278" t="s">
         <v>956</v>
-      </c>
-      <c r="E278" t="s">
-        <v>957</v>
-      </c>
-      <c r="F278" t="s">
-        <v>958</v>
       </c>
       <c r="I278" t="s">
         <v>26</v>
@@ -10800,16 +10800,16 @@
         <v>27</v>
       </c>
       <c r="C279" t="s">
+        <v>957</v>
+      </c>
+      <c r="D279" t="s">
+        <v>958</v>
+      </c>
+      <c r="E279" t="s">
         <v>959</v>
       </c>
-      <c r="D279" t="s">
+      <c r="F279" t="s">
         <v>960</v>
-      </c>
-      <c r="E279" t="s">
-        <v>961</v>
-      </c>
-      <c r="F279" t="s">
-        <v>962</v>
       </c>
       <c r="I279" t="s">
         <v>50</v>
@@ -10823,16 +10823,16 @@
         <v>27</v>
       </c>
       <c r="C280" t="s">
+        <v>961</v>
+      </c>
+      <c r="D280" t="s">
+        <v>962</v>
+      </c>
+      <c r="E280" t="s">
+        <v>959</v>
+      </c>
+      <c r="F280" t="s">
         <v>963</v>
-      </c>
-      <c r="D280" t="s">
-        <v>964</v>
-      </c>
-      <c r="E280" t="s">
-        <v>961</v>
-      </c>
-      <c r="F280" t="s">
-        <v>965</v>
       </c>
       <c r="I280" t="s">
         <v>50</v>
@@ -10846,16 +10846,16 @@
         <v>27</v>
       </c>
       <c r="C281" t="s">
+        <v>964</v>
+      </c>
+      <c r="D281" t="s">
+        <v>965</v>
+      </c>
+      <c r="E281" t="s">
+        <v>959</v>
+      </c>
+      <c r="F281" t="s">
         <v>966</v>
-      </c>
-      <c r="D281" t="s">
-        <v>967</v>
-      </c>
-      <c r="E281" t="s">
-        <v>961</v>
-      </c>
-      <c r="F281" t="s">
-        <v>968</v>
       </c>
       <c r="I281" t="s">
         <v>50</v>
@@ -10869,16 +10869,16 @@
         <v>27</v>
       </c>
       <c r="C282" t="s">
+        <v>967</v>
+      </c>
+      <c r="D282" t="s">
+        <v>968</v>
+      </c>
+      <c r="E282" t="s">
         <v>969</v>
       </c>
-      <c r="D282" t="s">
+      <c r="F282" t="s">
         <v>970</v>
-      </c>
-      <c r="E282" t="s">
-        <v>971</v>
-      </c>
-      <c r="F282" t="s">
-        <v>972</v>
       </c>
       <c r="I282" t="s">
         <v>26</v>
@@ -10892,16 +10892,16 @@
         <v>27</v>
       </c>
       <c r="C283" t="s">
+        <v>971</v>
+      </c>
+      <c r="D283" t="s">
+        <v>972</v>
+      </c>
+      <c r="E283" t="s">
+        <v>969</v>
+      </c>
+      <c r="F283" t="s">
         <v>973</v>
-      </c>
-      <c r="D283" t="s">
-        <v>974</v>
-      </c>
-      <c r="E283" t="s">
-        <v>971</v>
-      </c>
-      <c r="F283" t="s">
-        <v>975</v>
       </c>
       <c r="I283" t="s">
         <v>26</v>
@@ -10915,16 +10915,16 @@
         <v>27</v>
       </c>
       <c r="C284" t="s">
+        <v>974</v>
+      </c>
+      <c r="D284" t="s">
+        <v>975</v>
+      </c>
+      <c r="E284" t="s">
+        <v>969</v>
+      </c>
+      <c r="F284" t="s">
         <v>976</v>
-      </c>
-      <c r="D284" t="s">
-        <v>977</v>
-      </c>
-      <c r="E284" t="s">
-        <v>971</v>
-      </c>
-      <c r="F284" t="s">
-        <v>978</v>
       </c>
       <c r="I284" t="s">
         <v>26</v>
@@ -10938,19 +10938,19 @@
         <v>27</v>
       </c>
       <c r="C285" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D285" t="s">
+        <v>977</v>
+      </c>
+      <c r="E285" t="s">
+        <v>969</v>
+      </c>
+      <c r="F285" t="s">
+        <v>978</v>
+      </c>
+      <c r="I285" t="s">
         <v>979</v>
-      </c>
-      <c r="E285" t="s">
-        <v>971</v>
-      </c>
-      <c r="F285" t="s">
-        <v>980</v>
-      </c>
-      <c r="I285" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10961,16 +10961,16 @@
         <v>27</v>
       </c>
       <c r="C286" t="s">
+        <v>980</v>
+      </c>
+      <c r="D286" t="s">
+        <v>981</v>
+      </c>
+      <c r="E286" t="s">
+        <v>969</v>
+      </c>
+      <c r="F286" t="s">
         <v>982</v>
-      </c>
-      <c r="D286" t="s">
-        <v>983</v>
-      </c>
-      <c r="E286" t="s">
-        <v>971</v>
-      </c>
-      <c r="F286" t="s">
-        <v>984</v>
       </c>
       <c r="I286" t="s">
         <v>26</v>
@@ -10984,16 +10984,16 @@
         <v>27</v>
       </c>
       <c r="C287" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D287" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E287" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F287" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I287" t="s">
         <v>50</v>
@@ -11007,16 +11007,16 @@
         <v>27</v>
       </c>
       <c r="C288" t="s">
+        <v>985</v>
+      </c>
+      <c r="D288" t="s">
+        <v>986</v>
+      </c>
+      <c r="E288" t="s">
         <v>987</v>
       </c>
-      <c r="D288" t="s">
+      <c r="F288" t="s">
         <v>988</v>
-      </c>
-      <c r="E288" t="s">
-        <v>989</v>
-      </c>
-      <c r="F288" t="s">
-        <v>990</v>
       </c>
       <c r="I288" t="s">
         <v>26</v>
@@ -11030,16 +11030,16 @@
         <v>27</v>
       </c>
       <c r="C289" t="s">
+        <v>989</v>
+      </c>
+      <c r="D289" t="s">
+        <v>990</v>
+      </c>
+      <c r="E289" t="s">
+        <v>987</v>
+      </c>
+      <c r="F289" t="s">
         <v>991</v>
-      </c>
-      <c r="D289" t="s">
-        <v>992</v>
-      </c>
-      <c r="E289" t="s">
-        <v>989</v>
-      </c>
-      <c r="F289" t="s">
-        <v>993</v>
       </c>
       <c r="I289" t="s">
         <v>26</v>
@@ -11053,16 +11053,16 @@
         <v>27</v>
       </c>
       <c r="C290" t="s">
+        <v>992</v>
+      </c>
+      <c r="D290" t="s">
+        <v>993</v>
+      </c>
+      <c r="E290" t="s">
+        <v>987</v>
+      </c>
+      <c r="F290" t="s">
         <v>994</v>
-      </c>
-      <c r="D290" t="s">
-        <v>995</v>
-      </c>
-      <c r="E290" t="s">
-        <v>989</v>
-      </c>
-      <c r="F290" t="s">
-        <v>996</v>
       </c>
       <c r="I290" t="s">
         <v>85</v>
@@ -11076,16 +11076,16 @@
         <v>27</v>
       </c>
       <c r="C291" t="s">
+        <v>995</v>
+      </c>
+      <c r="D291" t="s">
+        <v>996</v>
+      </c>
+      <c r="E291" t="s">
         <v>997</v>
       </c>
-      <c r="D291" t="s">
+      <c r="F291" t="s">
         <v>998</v>
-      </c>
-      <c r="E291" t="s">
-        <v>999</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1000</v>
       </c>
       <c r="I291" t="s">
         <v>26</v>
@@ -11099,16 +11099,16 @@
         <v>27</v>
       </c>
       <c r="C292" t="s">
+        <v>999</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E292" t="s">
         <v>1001</v>
       </c>
-      <c r="D292" t="s">
+      <c r="F292" t="s">
         <v>1002</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F292" t="s">
-        <v>1004</v>
       </c>
       <c r="I292" t="s">
         <v>55</v>
@@ -11122,16 +11122,16 @@
         <v>27</v>
       </c>
       <c r="C293" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F293" t="s">
         <v>1005</v>
-      </c>
-      <c r="D293" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1007</v>
       </c>
       <c r="I293" t="s">
         <v>39</v>
@@ -11145,16 +11145,16 @@
         <v>27</v>
       </c>
       <c r="C294" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E294" t="s">
         <v>1008</v>
       </c>
-      <c r="D294" t="s">
+      <c r="F294" t="s">
         <v>1009</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F294" t="s">
-        <v>1011</v>
       </c>
       <c r="I294" t="s">
         <v>55</v>
@@ -11168,16 +11168,16 @@
         <v>27</v>
       </c>
       <c r="C295" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F295" t="s">
         <v>1012</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E295" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F295" t="s">
-        <v>1014</v>
       </c>
       <c r="I295" t="s">
         <v>26</v>
@@ -11191,16 +11191,16 @@
         <v>27</v>
       </c>
       <c r="C296" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F296" t="s">
         <v>1015</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E296" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1017</v>
       </c>
       <c r="I296" t="s">
         <v>26</v>
@@ -11214,16 +11214,16 @@
         <v>27</v>
       </c>
       <c r="C297" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E297" t="s">
         <v>1018</v>
       </c>
-      <c r="D297" t="s">
+      <c r="F297" t="s">
         <v>1019</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1021</v>
       </c>
       <c r="I297" t="s">
         <v>26</v>
@@ -11237,16 +11237,16 @@
         <v>27</v>
       </c>
       <c r="C298" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D298" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E298" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F298" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I298" t="s">
         <v>50</v>
@@ -11261,7 +11261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11299,16 +11301,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D2" t="s">
         <v>1024</v>
       </c>
-      <c r="C2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I2" t="s">
-        <v>391</v>
+      <c r="I2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -11316,16 +11318,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1029</v>
+        <v>1026</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -11333,16 +11335,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I4" t="s">
-        <v>391</v>
+        <v>1028</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -11392,16 +11394,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2" t="s">
         <v>1032</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -11409,19 +11411,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I3" t="s">
         <v>1036</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -11429,16 +11431,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="H4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11446,19 +11448,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I5" t="s">
         <v>1043</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -11466,19 +11468,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I6" t="s">
         <v>1047</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -11486,19 +11488,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C7" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D7" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="H7" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="I7" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -11506,19 +11508,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I8" t="s">
         <v>1054</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11526,19 +11528,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I9" t="s">
         <v>1058</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -11546,19 +11548,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I10" t="s">
         <v>1062</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -11566,19 +11568,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C11" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D11" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="H11" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="I11" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -11586,16 +11588,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C12" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D12" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="H12" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -11603,19 +11605,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I13" t="s">
         <v>1072</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -11623,16 +11625,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C14" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D14" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H14" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -11640,19 +11642,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I15" t="s">
         <v>1079</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -11660,19 +11662,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C16" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D16" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="H16" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="I16" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -11680,19 +11682,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I17" t="s">
         <v>1086</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -11700,19 +11702,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C18" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I18" t="s">
         <v>1090</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -11720,19 +11722,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C19" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D19" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="H19" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="I19" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -11740,19 +11742,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D20" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="H20" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="I20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -11760,19 +11762,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C21" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D21" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="H21" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="I21" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -11780,16 +11782,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C22" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D22" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H22" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -11797,19 +11799,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C23" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D23" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H23" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I23" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -11817,19 +11819,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I24" t="s">
         <v>1109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -11837,19 +11839,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C25" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D25" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="H25" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="I25" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -11857,19 +11859,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I26" t="s">
         <v>1116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -11877,19 +11879,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C27" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D27" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H27" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I27" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -11897,16 +11899,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C28" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D28" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H28" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -11914,19 +11916,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C29" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I29" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -11934,16 +11936,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C30" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D30" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H30" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -11951,19 +11953,19 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C31" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D31" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H31" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I31" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -11971,19 +11973,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C32" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D32" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H32" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I32" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -11991,19 +11993,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C33" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D33" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H33" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I33" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -12011,19 +12013,19 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I34" t="s">
         <v>1141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -12031,19 +12033,19 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C35" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D35" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H35" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I35" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -12051,19 +12053,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C36" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D36" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H36" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="I36" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -12071,19 +12073,19 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I37" t="s">
         <v>1151</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -12091,19 +12093,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C38" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D38" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H38" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="I38" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -12155,16 +12157,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C2" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D2" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="I2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12172,16 +12174,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C3" t="s">
         <v>1158</v>
       </c>
-      <c r="C3" t="s">
-        <v>1161</v>
-      </c>
       <c r="D3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="I3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12189,16 +12191,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -12250,19 +12252,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C2" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D2" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12270,19 +12272,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F3" t="s">
         <v>1170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -12334,13 +12336,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D2" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -12393,19 +12395,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G2" t="s">
         <v>1177</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>1178</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12413,19 +12415,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="I3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -12433,19 +12435,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I4" t="s">
         <v>1185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -12453,19 +12455,19 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="G5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="I5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -12473,19 +12475,19 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C6" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D6" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="G6" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I6" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -12493,19 +12495,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C7" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D7" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="G7" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="I7" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -12513,19 +12515,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I8" t="s">
         <v>1198</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12533,19 +12535,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C9" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D9" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="G9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I9" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12553,19 +12555,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C10" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D10" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="G10" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="I10" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12573,19 +12575,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C11" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D11" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="G11" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I11" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -12593,19 +12595,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C12" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="D12" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="G12" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="I12" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -12613,19 +12615,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C13" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="D13" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="G13" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="I13" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -12633,19 +12635,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C14" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="D14" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="G14" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="I14" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -12653,19 +12655,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C15" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D15" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G15" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="I15" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12673,19 +12675,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C16" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D16" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G16" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="I16" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -12693,19 +12695,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C17" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D17" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G17" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="I17" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -12713,19 +12715,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C18" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="D18" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="G18" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="I18" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -12733,19 +12735,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C19" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D19" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="G19" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="I19" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -12753,19 +12755,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C20" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D20" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="G20" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I20" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -12773,19 +12775,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C21" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="D21" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="G21" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="I21" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -12793,19 +12795,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C22" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="D22" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="G22" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I22" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -12813,19 +12815,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C23" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D23" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="G23" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="I23" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -12833,19 +12835,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C24" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D24" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G24" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="I24" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -12853,19 +12855,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C25" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D25" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="G25" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="I25" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -12873,19 +12875,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C26" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D26" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="G26" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I26" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -12893,19 +12895,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C27" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D27" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="G27" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I27" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -12913,19 +12915,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C28" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D28" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="G28" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I28" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -12937,7 +12939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12975,19 +12979,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>1262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
